--- a/期中测试/猎聘(已优化)/excels/上海/广告策划/2023-12-27/猎聘上海-广告策划-2023-12-27.xlsx
+++ b/期中测试/猎聘(已优化)/excels/上海/广告策划/2023-12-27/猎聘上海-广告策划-2023-12-27.xlsx
@@ -1798,12 +1798,12 @@
     <t>市场总监</t>
   </si>
   <si>
+    <t>营销策划</t>
+  </si>
+  <si>
     <t>食品赛道头部市场总监-上海/郑州</t>
   </si>
   <si>
-    <t>营销策划</t>
-  </si>
-  <si>
     <t>市场总监（36岁以内，国际知名快消品企业或大型快消上市企业背景，商超渠道；base上海/郑州）</t>
   </si>
   <si>
@@ -1837,24 +1837,24 @@
     <t>品牌搭建负责人（大健康，快消品）</t>
   </si>
   <si>
+    <t>资深KOL营销 (MJ008505)</t>
+  </si>
+  <si>
+    <t>品牌营销策划</t>
+  </si>
+  <si>
+    <t>日化大区经理</t>
+  </si>
+  <si>
+    <t>文案品宣经理(J11782)</t>
+  </si>
+  <si>
+    <t>产品经理-食品</t>
+  </si>
+  <si>
     <t>市场营销总监</t>
   </si>
   <si>
-    <t>资深KOL营销 (MJ008505)</t>
-  </si>
-  <si>
-    <t>品牌营销策划</t>
-  </si>
-  <si>
-    <t>日化大区经理</t>
-  </si>
-  <si>
-    <t>文案品宣经理(J11782)</t>
-  </si>
-  <si>
-    <t>产品经理-食品</t>
-  </si>
-  <si>
     <t>资深品牌视觉设计师</t>
   </si>
   <si>
@@ -1885,186 +1885,189 @@
     <t>云图策略分析师</t>
   </si>
   <si>
+    <t>信息流编导</t>
+  </si>
+  <si>
+    <t>品牌策划主管</t>
+  </si>
+  <si>
+    <t>社交媒体策略总监</t>
+  </si>
+  <si>
+    <t>内容运营</t>
+  </si>
+  <si>
+    <t>ec mkt</t>
+  </si>
+  <si>
+    <t>市场营销总监（户用）</t>
+  </si>
+  <si>
+    <t>电商策略分析专家</t>
+  </si>
+  <si>
+    <t>品牌策略经理</t>
+  </si>
+  <si>
+    <t>数据分析总监，抖音渠道</t>
+  </si>
+  <si>
+    <t>品牌推广部门长</t>
+  </si>
+  <si>
+    <t>公关媒介</t>
+  </si>
+  <si>
+    <t>品牌专业主管</t>
+  </si>
+  <si>
+    <t>集团营销总监</t>
+  </si>
+  <si>
+    <t>营销总监</t>
+  </si>
+  <si>
+    <t>市场经理-品牌方向</t>
+  </si>
+  <si>
+    <t>海外市场专员</t>
+  </si>
+  <si>
+    <t>（奢侈品行业）品牌总监</t>
+  </si>
+  <si>
+    <t>外贸运营专员</t>
+  </si>
+  <si>
+    <t>市场多媒体运营</t>
+  </si>
+  <si>
+    <t>新媒体运营专员</t>
+  </si>
+  <si>
+    <t>Women's Health Editor</t>
+  </si>
+  <si>
+    <t>市场经理（机床或激光）</t>
+  </si>
+  <si>
+    <t>Senior Social Planning Manager</t>
+  </si>
+  <si>
+    <t>购物中心策划岗</t>
+  </si>
+  <si>
+    <t>营销策划经理</t>
+  </si>
+  <si>
+    <t>IP创意策划经理/副经理</t>
+  </si>
+  <si>
+    <t>市场营销总监 (MJ000985)</t>
+  </si>
+  <si>
+    <t>新媒体推广经理</t>
+  </si>
+  <si>
+    <t>品牌高级经理</t>
+  </si>
+  <si>
+    <t>新媒体运营</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 155938-数字营销助理#应届生可</t>
+  </si>
+  <si>
+    <t>推广高级经理</t>
+  </si>
+  <si>
+    <t>亚马逊广告投放</t>
+  </si>
+  <si>
+    <t>内容运营（图文方向）</t>
+  </si>
+  <si>
+    <t>线上活动策划/活动运营</t>
+  </si>
+  <si>
+    <t>国际化电商广告销售经理—拓新</t>
+  </si>
+  <si>
+    <t>CMO(奢侈品方向)</t>
+  </si>
+  <si>
+    <t>商务经理/主管</t>
+  </si>
+  <si>
+    <t>高级客户经理</t>
+  </si>
+  <si>
+    <t>数字营销助理#应届生可</t>
+  </si>
+  <si>
+    <t>媒介策划经理（轻奢服装品牌）</t>
+  </si>
+  <si>
+    <t>媒介策划经理</t>
+  </si>
+  <si>
+    <t>活动策划经理</t>
+  </si>
+  <si>
+    <t>高级市场经理</t>
+  </si>
+  <si>
+    <t>内容运营(品牌软文的文案)</t>
+  </si>
+  <si>
+    <t>商务经理</t>
+  </si>
+  <si>
+    <t>品牌营销副总监/高级经理</t>
+  </si>
+  <si>
+    <t>创意总监</t>
+  </si>
+  <si>
+    <t>整合营销经理/策划经理-小红书(A144626)</t>
+  </si>
+  <si>
+    <t>品牌-企宣</t>
+  </si>
+  <si>
+    <t>广告创意文案</t>
+  </si>
+  <si>
+    <t>资深/策划经理</t>
+  </si>
+  <si>
+    <t>小红书商务经理/主管</t>
+  </si>
+  <si>
+    <t>资深KOL营销策划</t>
+  </si>
+  <si>
+    <t>商务经理/知乎(A193723)</t>
+  </si>
+  <si>
+    <t>品牌策划经理</t>
+  </si>
+  <si>
+    <t>上海大区平台策划</t>
+  </si>
+  <si>
+    <t>商业运营经理</t>
+  </si>
+  <si>
+    <t>餐厅总经理/店长</t>
+  </si>
+  <si>
+    <t>平面设计师</t>
+  </si>
+  <si>
     <t>市场策划</t>
   </si>
   <si>
-    <t>信息流编导</t>
-  </si>
-  <si>
-    <t>品牌策划主管</t>
-  </si>
-  <si>
-    <t>社交媒体策略总监</t>
-  </si>
-  <si>
-    <t>内容运营</t>
-  </si>
-  <si>
-    <t>ec mkt</t>
-  </si>
-  <si>
-    <t>市场营销总监（户用）</t>
-  </si>
-  <si>
-    <t>电商策略分析专家</t>
-  </si>
-  <si>
-    <t>品牌策略经理</t>
-  </si>
-  <si>
-    <t>数据分析总监，抖音渠道</t>
-  </si>
-  <si>
-    <t>品牌推广部门长</t>
-  </si>
-  <si>
-    <t>公关媒介</t>
-  </si>
-  <si>
-    <t>集团营销总监</t>
-  </si>
-  <si>
-    <t>营销总监</t>
-  </si>
-  <si>
-    <t>海外市场专员</t>
-  </si>
-  <si>
-    <t>市场经理-品牌方向</t>
-  </si>
-  <si>
-    <t>（奢侈品行业）品牌总监</t>
-  </si>
-  <si>
-    <t>外贸运营专员</t>
-  </si>
-  <si>
-    <t>市场多媒体运营</t>
-  </si>
-  <si>
-    <t>新媒体运营专员</t>
-  </si>
-  <si>
-    <t>Women's Health Editor</t>
-  </si>
-  <si>
-    <t>市场经理（机床或激光）</t>
-  </si>
-  <si>
-    <t>Senior Social Planning Manager</t>
-  </si>
-  <si>
-    <t>购物中心策划岗</t>
-  </si>
-  <si>
-    <t>营销策划经理</t>
-  </si>
-  <si>
-    <t>IP创意策划经理/副经理</t>
-  </si>
-  <si>
-    <t>市场营销总监 (MJ000985)</t>
-  </si>
-  <si>
-    <t>新媒体推广经理</t>
-  </si>
-  <si>
-    <t>品牌高级经理</t>
-  </si>
-  <si>
-    <t>新媒体运营</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 155938-数字营销助理#应届生可</t>
-  </si>
-  <si>
-    <t>推广高级经理</t>
-  </si>
-  <si>
-    <t>亚马逊广告投放</t>
-  </si>
-  <si>
-    <t>内容运营（图文方向）</t>
-  </si>
-  <si>
-    <t>线上活动策划/活动运营</t>
-  </si>
-  <si>
-    <t>国际化电商广告销售经理—拓新</t>
-  </si>
-  <si>
-    <t>CMO(奢侈品方向)</t>
-  </si>
-  <si>
-    <t>商务经理/主管</t>
-  </si>
-  <si>
-    <t>高级客户经理</t>
-  </si>
-  <si>
-    <t>数字营销助理#应届生可</t>
-  </si>
-  <si>
-    <t>媒介策划经理（轻奢服装品牌）</t>
-  </si>
-  <si>
-    <t>媒介策划经理</t>
-  </si>
-  <si>
-    <t>活动策划经理</t>
-  </si>
-  <si>
-    <t>高级市场经理</t>
-  </si>
-  <si>
-    <t>内容运营(品牌软文的文案)</t>
-  </si>
-  <si>
-    <t>商务经理</t>
-  </si>
-  <si>
-    <t>品牌营销副总监/高级经理</t>
-  </si>
-  <si>
-    <t>创意总监</t>
-  </si>
-  <si>
-    <t>整合营销经理/策划经理-小红书(A144626)</t>
-  </si>
-  <si>
-    <t>品牌-企宣</t>
-  </si>
-  <si>
-    <t>广告创意文案</t>
-  </si>
-  <si>
-    <t>资深/策划经理</t>
-  </si>
-  <si>
-    <t>小红书商务经理/主管</t>
-  </si>
-  <si>
-    <t>资深KOL营销策划</t>
-  </si>
-  <si>
-    <t>商务经理/知乎(A193723)</t>
-  </si>
-  <si>
-    <t>品牌策划经理</t>
-  </si>
-  <si>
-    <t>上海大区平台策划</t>
-  </si>
-  <si>
-    <t>商业运营经理</t>
-  </si>
-  <si>
-    <t>餐厅总经理/店长</t>
-  </si>
-  <si>
-    <t>平面设计师</t>
-  </si>
-  <si>
     <t>策略策划（汽车行业）(J11256)</t>
   </si>
   <si>
@@ -2218,9 +2221,6 @@
     <t>派对经理（上海爱琴海店）</t>
   </si>
   <si>
-    <t>品牌专业主管</t>
-  </si>
-  <si>
     <t>医美业务代表</t>
   </si>
   <si>
@@ -2830,12 +2830,12 @@
     <t>['市场策划', '市场营销']</t>
   </si>
   <si>
+    <t>['营销策划', '广告策划', '文案策划', '品牌策划', '网站策划', '物资管理', '营销活动', '广告媒介', '门户网站', '广告/传媒/文化']</t>
+  </si>
+  <si>
     <t>['市场推广', '品牌推广', '渠道推广', '营销推广', '市场策划', '快消品', '消费品', 'to B', '企业推广', '市场运营']</t>
   </si>
   <si>
-    <t>['营销策划', '广告策划', '文案策划', '品牌策划', '网站策划', '物资管理', '营销活动', '广告媒介', '门户网站', '广告/传媒/文化']</t>
-  </si>
-  <si>
     <t>['高奢品牌管理', 'CMO']</t>
   </si>
   <si>
@@ -2863,24 +2863,24 @@
     <t>['品牌搭建', '品牌策略', '大健康', '快消品类', '电商运营']</t>
   </si>
   <si>
+    <t>['线上活动', '品牌营销', '新媒体', '品牌推广']</t>
+  </si>
+  <si>
+    <t>['市场洞察', '客户管理', '化妆品', '网络运维培训', '区域销售', '招商销售', '网络销售']</t>
+  </si>
+  <si>
+    <t>['市场营销', '市场策划', '市场推广', '市场调研分析', '行业分析', '效果评估', '活动策划', '营销推广', '渠道策划', '营销活动']</t>
+  </si>
+  <si>
+    <t>['品牌推广', '餐饮/酒店']</t>
+  </si>
+  <si>
+    <t>['产品', '产品规划']</t>
+  </si>
+  <si>
     <t>['品牌推广', '市场拓展']</t>
   </si>
   <si>
-    <t>['线上活动', '品牌营销', '新媒体', '品牌推广']</t>
-  </si>
-  <si>
-    <t>['市场洞察', '客户管理', '化妆品', '网络运维培训', '区域销售', '招商销售', '网络销售']</t>
-  </si>
-  <si>
-    <t>['市场营销', '市场策划', '市场推广', '市场调研分析', '行业分析', '效果评估', '活动策划', '营销推广', '渠道策划', '营销活动']</t>
-  </si>
-  <si>
-    <t>['品牌推广', '餐饮/酒店']</t>
-  </si>
-  <si>
-    <t>['产品', '产品规划']</t>
-  </si>
-  <si>
     <t>['视觉设计', '广告设计', '品牌设计', '创意设计', '平面设计', '字体设计', '场景设计', '包装设计', '广告行业']</t>
   </si>
   <si>
@@ -2926,183 +2926,186 @@
     <t>['活动运营', '社交平台']</t>
   </si>
   <si>
+    <t>['品牌策划', '市场策划', '活动策划']</t>
+  </si>
+  <si>
+    <t>['内容运营', '小红书平台', '微信公众号']</t>
+  </si>
+  <si>
+    <t>['市场营销', '营销推广', '渠道推广', '电子商务', '广告/传媒/文化']</t>
+  </si>
+  <si>
+    <t>['市场调研分析', '行业分析', '消费者研究', 'GMV']</t>
+  </si>
+  <si>
+    <t>['品牌体系', '品牌营销', '品牌策划', '品牌渠道', '品牌推广', '品牌商务', '品牌战略', '品牌运营', '品牌公关', '品牌设计']</t>
+  </si>
+  <si>
+    <t>['抖音', '商业分析']</t>
+  </si>
+  <si>
+    <t>['品牌营销', '品牌策划', '品牌推广', '品牌运营', '品牌设计', '企业品牌']</t>
+  </si>
+  <si>
+    <t>['品牌推广', '市场推广']</t>
+  </si>
+  <si>
+    <t>['品牌公关', '活动公关', '危机公关', '媒介公关', '行业协会', '广告媒介', '自媒体', '物业服务', '广告/传媒/文化', 'IT/互联网/软件']</t>
+  </si>
+  <si>
+    <t>['品牌推广', '市场营销']</t>
+  </si>
+  <si>
+    <t>['品牌公关', '品牌战略', '品牌推广', '行业协会', '企业品牌', '网络媒介', '网络媒体', '广告/传媒/文化']</t>
+  </si>
+  <si>
+    <t>['市场营销', '品牌推广', '门户网站', '电子邮件', '展览活动', '品牌活动', '营销活动', 'to B']</t>
+  </si>
+  <si>
+    <t>['市场策划', '品牌推广', '公关策划', '市场推广', '广告策划', '广告媒介', '广告/传媒/文化']</t>
+  </si>
+  <si>
+    <t>['to B', '批发/零售', '亚洲']</t>
+  </si>
+  <si>
+    <t>['市场推广', '市场策划', '渠道推广', '品牌推广', '市场营销', '品牌活动', '广告/传媒/文化', '房地产/建筑业']</t>
+  </si>
+  <si>
+    <t>['反光材料', '汽车后市场', '自媒体运营', '新媒体运营', '产品运营', '市场运营', '网络推广', '平台运营', '品牌运营']</t>
+  </si>
+  <si>
+    <t>['小红书平台', '账号矩阵', '内容运营', '线下引流']</t>
+  </si>
+  <si>
+    <t>['市场策划', '活动策划', '品牌推广', '竞品分析', '公关策划', '品牌活动']</t>
+  </si>
+  <si>
+    <t>['活动策划', '文案策划', '媒介策划', '新媒体', '广告/传媒/文化']</t>
+  </si>
+  <si>
+    <t>['营销策划', '文案策划', '广告策划']</t>
+  </si>
+  <si>
+    <t>['乙方公司背景', '广告/传媒/文化', '种草方案', '线上全案']</t>
+  </si>
+  <si>
+    <t>['品牌战略', '品牌商务', '品牌营销', '品牌推广', '品牌运营', '广告媒介', '广告/传媒/文化', '消费品']</t>
+  </si>
+  <si>
+    <t>['广告/传媒/文化', '新媒体运营', '用户运营', '活动策划', '内容运营', '品牌运营', '新闻类', 'IT/互联网/软件', '短视频运营', '电商运营']</t>
+  </si>
+  <si>
+    <t>['活动策划', '市场营销', 'KOL']</t>
+  </si>
+  <si>
+    <t>['市场推广', '英语', '展会执行', '市场运营']</t>
+  </si>
+  <si>
+    <t>['内容运营', '电子商务', '线上运营', '微信公众号', '小红书平台', '微博平台']</t>
+  </si>
+  <si>
+    <t>['市场营销', '市场策划', '市场推广', '品牌推广', '媒介推广', '广告策划', '公关策划', '广告媒介']</t>
+  </si>
+  <si>
+    <t>['营销策划', '广告策划', '网站策划', '活动策划', '广告媒介', '营销活动', '新媒体', '广告媒体', '网络媒体', '广告/传媒/文化']</t>
+  </si>
+  <si>
+    <t>['品牌策划', '广告策划', '新媒体策划', '文案策划', '营销策划', '自媒体策划', '活动策划', '广告媒介', '自媒体', '广告/传媒/文化']</t>
+  </si>
+  <si>
+    <t>['客户管理', '电子商务', '市场洞察', '广告媒介', '门户网站', '广告业', '通信/网络设备', '广电行业', '家政培训', '渠道销售']</t>
+  </si>
+  <si>
+    <t>['品牌管理', '战略管理', '批发/零售']</t>
+  </si>
+  <si>
+    <t>['商业街', '商业物业']</t>
+  </si>
+  <si>
+    <t>['广告/传媒/文化', '电子商务']</t>
+  </si>
+  <si>
+    <t>['客户管理', '合同管理', '团队管理', '大客户', 'to B']</t>
+  </si>
+  <si>
+    <t>['KOL', '市场推广', '营销推广', 'SNS平台']</t>
+  </si>
+  <si>
+    <t>['媒介策划经理', '广告策划', '品牌策划', '媒介策划', '乙方公司背景', '大客户']</t>
+  </si>
+  <si>
+    <t>['品牌策划', '客户管理', '营销策划', '媒介策划', '公关策划', '活动策划', '乙方公司背景', '品牌活动', '营销活动', '广告/传媒/文化']</t>
+  </si>
+  <si>
+    <t>['策划', '市场营销']</t>
+  </si>
+  <si>
+    <t>['广告策划', '品牌策划', '广告媒介', '品牌活动', '营销活动', '展览活动', '庆典活动', '4A公司背景', '乙方公司背景', '广告/传媒/文化']</t>
+  </si>
+  <si>
+    <t>['市场推广', '市场营销', '市场策划', '品牌推广', '媒介推广', '公关策划', '市场运营', '广告策划', '市场调研分析', '社交媒体']</t>
+  </si>
+  <si>
+    <t>['市场营销', '品牌推广', '市场推广', '市场策划']</t>
+  </si>
+  <si>
+    <t>['市场营销', '市场策划', '市场推广', '品牌推广', '广告策划', '媒介推广', '公关策划', '广告媒介']</t>
+  </si>
+  <si>
+    <t>['内容运营', '消费品', '服装/纺织/皮革']</t>
+  </si>
+  <si>
+    <t>['市场洞察', '团队管理', '客户管理']</t>
+  </si>
+  <si>
+    <t>['品牌营销', '品牌推广', '品牌战略', '企业品牌', '国际品牌', '品牌活动', '营销活动', '甲方公司背景', '消费品', '快消品']</t>
+  </si>
+  <si>
+    <t>['信息流广告', '短视频广告', '效果广告']</t>
+  </si>
+  <si>
+    <t>['文案策划', '营销策划', '信息流', '广告/传媒/文化', '消费品']</t>
+  </si>
+  <si>
+    <t>['品牌推广', '品牌策划', '品牌设计', '品牌运营', '平面设计', '企业品牌', '广告媒介', '广告/传媒/文化', '制造业']</t>
+  </si>
+  <si>
+    <t>['广告策划', '文案策划', '新媒体策划', '广告媒介', '新媒体', '广告/传媒/文化']</t>
+  </si>
+  <si>
+    <t>['文案策划', '品牌策划', '营销策划', '广告/传媒/文化', '汽车行业']</t>
+  </si>
+  <si>
+    <t>['团队管理', '销售管理', '电子商务', '服务业']</t>
+  </si>
+  <si>
+    <t>['全球高奢高化', '品牌一把手', '品牌发展战略', '批发/零售', '市场分析调研']</t>
+  </si>
+  <si>
+    <t>['市场推广', '市场策划', '活动策划', '效果评估', '市场营销', '竞品分析', 'KOL', '社交媒体', '社交媒介', '海外媒介']</t>
+  </si>
+  <si>
+    <t>['渠道销售']</t>
+  </si>
+  <si>
+    <t>['品牌营销', '品牌策划', '品牌公关', '品牌推广', '营销活动', '广告媒介', '餐饮/酒店', '快消品']</t>
+  </si>
+  <si>
+    <t>['营销策划', '推广策划', '广告策略', '计划运营', '前期策划']</t>
+  </si>
+  <si>
+    <t>['市场营销', '市场策划', '市场推广', '市场调研分析', '行业分析', '营销推广', '效果评估', '活动策划', '渠道策划', '营销活动']</t>
+  </si>
+  <si>
+    <t>['经营管理', '招商租赁', '商业物业', '购物广场']</t>
+  </si>
+  <si>
+    <t>['广告设计', '创意设计', '物料设计', '品牌设计', '多媒体设计', 'VI设计', '平面设计', '视觉设计', '海报设计', '包装设计']</t>
+  </si>
+  <si>
     <t>['social digital ']</t>
   </si>
   <si>
-    <t>['品牌策划', '市场策划', '活动策划']</t>
-  </si>
-  <si>
-    <t>['内容运营', '小红书平台', '微信公众号']</t>
-  </si>
-  <si>
-    <t>['市场营销', '营销推广', '渠道推广', '电子商务', '广告/传媒/文化']</t>
-  </si>
-  <si>
-    <t>['市场调研分析', '行业分析', '消费者研究', 'GMV']</t>
-  </si>
-  <si>
-    <t>['品牌体系', '品牌营销', '品牌策划', '品牌渠道', '品牌推广', '品牌商务', '品牌战略', '品牌运营', '品牌公关', '品牌设计']</t>
-  </si>
-  <si>
-    <t>['抖音', '商业分析']</t>
-  </si>
-  <si>
-    <t>['品牌营销', '品牌策划', '品牌推广', '品牌运营', '品牌设计', '企业品牌']</t>
-  </si>
-  <si>
-    <t>['品牌推广', '市场推广']</t>
-  </si>
-  <si>
-    <t>['品牌推广', '市场营销']</t>
-  </si>
-  <si>
-    <t>['市场营销', '品牌推广', '门户网站', '电子邮件', '展览活动', '品牌活动', '营销活动', 'to B']</t>
-  </si>
-  <si>
-    <t>['品牌公关', '品牌战略', '品牌推广', '行业协会', '企业品牌', '网络媒介', '网络媒体', '广告/传媒/文化']</t>
-  </si>
-  <si>
-    <t>['市场策划', '品牌推广', '公关策划', '市场推广', '广告策划', '广告媒介', '广告/传媒/文化']</t>
-  </si>
-  <si>
-    <t>['to B', '批发/零售', '亚洲']</t>
-  </si>
-  <si>
-    <t>['市场推广', '市场策划', '渠道推广', '品牌推广', '市场营销', '品牌活动', '广告/传媒/文化', '房地产/建筑业']</t>
-  </si>
-  <si>
-    <t>['反光材料', '汽车后市场', '自媒体运营', '新媒体运营', '产品运营', '市场运营', '网络推广', '平台运营', '品牌运营']</t>
-  </si>
-  <si>
-    <t>['小红书平台', '账号矩阵', '内容运营', '线下引流']</t>
-  </si>
-  <si>
-    <t>['市场策划', '活动策划', '品牌推广', '竞品分析', '公关策划', '品牌活动']</t>
-  </si>
-  <si>
-    <t>['活动策划', '文案策划', '媒介策划', '新媒体', '广告/传媒/文化']</t>
-  </si>
-  <si>
-    <t>['营销策划', '文案策划', '广告策划']</t>
-  </si>
-  <si>
-    <t>['乙方公司背景', '广告/传媒/文化', '种草方案', '线上全案']</t>
-  </si>
-  <si>
-    <t>['品牌战略', '品牌商务', '品牌营销', '品牌推广', '品牌运营', '广告媒介', '广告/传媒/文化', '消费品']</t>
-  </si>
-  <si>
-    <t>['广告/传媒/文化', '新媒体运营', '用户运营', '活动策划', '内容运营', '品牌运营', '新闻类', 'IT/互联网/软件', '短视频运营', '电商运营']</t>
-  </si>
-  <si>
-    <t>['活动策划', '市场营销', 'KOL']</t>
-  </si>
-  <si>
-    <t>['内容运营', '电子商务', '线上运营', '微信公众号', '小红书平台', '微博平台']</t>
-  </si>
-  <si>
-    <t>['市场营销', '市场策划', '市场推广', '品牌推广', '媒介推广', '广告策划', '公关策划', '广告媒介']</t>
-  </si>
-  <si>
-    <t>['营销策划', '广告策划', '网站策划', '活动策划', '广告媒介', '营销活动', '新媒体', '广告媒体', '网络媒体', '广告/传媒/文化']</t>
-  </si>
-  <si>
-    <t>['品牌策划', '广告策划', '新媒体策划', '文案策划', '营销策划', '自媒体策划', '活动策划', '广告媒介', '自媒体', '广告/传媒/文化']</t>
-  </si>
-  <si>
-    <t>['客户管理', '电子商务', '市场洞察', '广告媒介', '门户网站', '广告业', '通信/网络设备', '广电行业', '家政培训', '渠道销售']</t>
-  </si>
-  <si>
-    <t>['品牌管理', '战略管理', '批发/零售']</t>
-  </si>
-  <si>
-    <t>['商业街', '商业物业']</t>
-  </si>
-  <si>
-    <t>['广告/传媒/文化', '电子商务']</t>
-  </si>
-  <si>
-    <t>['客户管理', '合同管理', '团队管理', '大客户', 'to B']</t>
-  </si>
-  <si>
-    <t>['KOL', '市场推广', '营销推广', 'SNS平台']</t>
-  </si>
-  <si>
-    <t>['媒介策划经理', '广告策划', '品牌策划', '媒介策划', '乙方公司背景', '大客户']</t>
-  </si>
-  <si>
-    <t>['品牌策划', '客户管理', '营销策划', '媒介策划', '公关策划', '活动策划', '乙方公司背景', '品牌活动', '营销活动', '广告/传媒/文化']</t>
-  </si>
-  <si>
-    <t>['策划', '市场营销']</t>
-  </si>
-  <si>
-    <t>['广告策划', '品牌策划', '广告媒介', '品牌活动', '营销活动', '展览活动', '庆典活动', '4A公司背景', '乙方公司背景', '广告/传媒/文化']</t>
-  </si>
-  <si>
-    <t>['市场推广', '英语', '展会执行', '市场运营']</t>
-  </si>
-  <si>
-    <t>['市场推广', '市场营销', '市场策划', '品牌推广', '媒介推广', '公关策划', '市场运营', '广告策划', '市场调研分析', '社交媒体']</t>
-  </si>
-  <si>
-    <t>['市场营销', '品牌推广', '市场推广', '市场策划']</t>
-  </si>
-  <si>
-    <t>['市场营销', '市场策划', '市场推广', '品牌推广', '广告策划', '媒介推广', '公关策划', '广告媒介']</t>
-  </si>
-  <si>
-    <t>['内容运营', '消费品', '服装/纺织/皮革']</t>
-  </si>
-  <si>
-    <t>['市场洞察', '团队管理', '客户管理']</t>
-  </si>
-  <si>
-    <t>['品牌营销', '品牌推广', '品牌战略', '企业品牌', '国际品牌', '品牌活动', '营销活动', '甲方公司背景', '消费品', '快消品']</t>
-  </si>
-  <si>
-    <t>['信息流广告', '短视频广告', '效果广告']</t>
-  </si>
-  <si>
-    <t>['文案策划', '营销策划', '信息流', '广告/传媒/文化', '消费品']</t>
-  </si>
-  <si>
-    <t>['品牌推广', '品牌策划', '品牌设计', '品牌运营', '平面设计', '企业品牌', '广告媒介', '广告/传媒/文化', '制造业']</t>
-  </si>
-  <si>
-    <t>['广告策划', '文案策划', '新媒体策划', '广告媒介', '新媒体', '广告/传媒/文化']</t>
-  </si>
-  <si>
-    <t>['文案策划', '品牌策划', '营销策划', '广告/传媒/文化', '汽车行业']</t>
-  </si>
-  <si>
-    <t>['团队管理', '销售管理', '电子商务', '服务业']</t>
-  </si>
-  <si>
-    <t>['全球高奢高化', '品牌一把手', '品牌发展战略', '批发/零售', '市场分析调研']</t>
-  </si>
-  <si>
-    <t>['市场推广', '市场策划', '活动策划', '效果评估', '市场营销', '竞品分析', 'KOL', '社交媒体', '社交媒介', '海外媒介']</t>
-  </si>
-  <si>
-    <t>['渠道销售']</t>
-  </si>
-  <si>
-    <t>['品牌营销', '品牌策划', '品牌公关', '品牌推广', '营销活动', '广告媒介', '餐饮/酒店', '快消品']</t>
-  </si>
-  <si>
-    <t>['营销策划', '推广策划', '广告策略', '计划运营', '前期策划']</t>
-  </si>
-  <si>
-    <t>['市场营销', '市场策划', '市场推广', '市场调研分析', '行业分析', '营销推广', '效果评估', '活动策划', '渠道策划', '营销活动']</t>
-  </si>
-  <si>
-    <t>['经营管理', '招商租赁', '商业物业', '购物广场']</t>
-  </si>
-  <si>
-    <t>['广告设计', '创意设计', '物料设计', '品牌设计', '多媒体设计', 'VI设计', '平面设计', '视觉设计', '海报设计', '包装设计']</t>
-  </si>
-  <si>
     <t>['营销策划', '网络媒介', '广告媒介', '媒介投放', '巨量云图', '汽车客户']</t>
   </si>
   <si>
@@ -3256,9 +3259,6 @@
     <t>['汽车广告', '新媒体广告']</t>
   </si>
   <si>
-    <t>['品牌公关', '活动公关', '危机公关', '媒介公关', '行业协会', '广告媒介', '自媒体', '物业服务', '广告/传媒/文化', 'IT/互联网/软件']</t>
-  </si>
-  <si>
     <t>['医美行业', '美容培训', '美容服务', '市场洞察', '网络运维培训', '制药/医疗', '客户管理', '区域销售', '网络销售', '医美领域']</t>
   </si>
   <si>
@@ -3964,18 +3964,18 @@
     <t>2023年10月16日</t>
   </si>
   <si>
+    <t>2023年07月18日</t>
+  </si>
+  <si>
+    <t>2023年12月19日</t>
+  </si>
+  <si>
+    <t>2023年11月16日</t>
+  </si>
+  <si>
     <t>2023年11月23日</t>
   </si>
   <si>
-    <t>2023年07月18日</t>
-  </si>
-  <si>
-    <t>2023年12月19日</t>
-  </si>
-  <si>
-    <t>2023年11月16日</t>
-  </si>
-  <si>
     <t>2023年12月12日</t>
   </si>
   <si>
@@ -4843,18 +4843,21 @@
     <t>7-10k</t>
   </si>
   <si>
+    <t>10-15k·15薪</t>
+  </si>
+  <si>
     <t>25-30k·14薪</t>
   </si>
   <si>
+    <t>10-30k</t>
+  </si>
+  <si>
+    <t>19-25k·13薪</t>
+  </si>
+  <si>
     <t>15-19k·16薪</t>
   </si>
   <si>
-    <t>10-30k</t>
-  </si>
-  <si>
-    <t>19-25k·13薪</t>
-  </si>
-  <si>
     <t>9-13k</t>
   </si>
   <si>
@@ -4873,9 +4876,6 @@
     <t>15-20k·13薪</t>
   </si>
   <si>
-    <t>10-15k·15薪</t>
-  </si>
-  <si>
     <t>20-30k·14薪</t>
   </si>
   <si>
@@ -5533,21 +5533,21 @@
     <t>某上海贸易进出口公司</t>
   </si>
   <si>
+    <t>上海朗斯科技有限公司</t>
+  </si>
+  <si>
+    <t>某上海餐饮业公司</t>
+  </si>
+  <si>
+    <t>芯动科技</t>
+  </si>
+  <si>
+    <t>白象食品</t>
+  </si>
+  <si>
     <t>某国内新能源上市公司</t>
   </si>
   <si>
-    <t>上海朗斯科技有限公司</t>
-  </si>
-  <si>
-    <t>某上海餐饮业公司</t>
-  </si>
-  <si>
-    <t>芯动科技</t>
-  </si>
-  <si>
-    <t>白象食品</t>
-  </si>
-  <si>
     <t>乐漾电商</t>
   </si>
   <si>
@@ -5587,153 +5587,156 @@
     <t>某上海专业技术服务公司</t>
   </si>
   <si>
+    <t>九晓(上海)信息技术有限公司</t>
+  </si>
+  <si>
+    <t>缙嘉集团</t>
+  </si>
+  <si>
+    <t>汉威士</t>
+  </si>
+  <si>
+    <t>兰源(上海)投资咨询有限公司</t>
+  </si>
+  <si>
+    <t>乐其集团</t>
+  </si>
+  <si>
+    <t>某大型知名电子商务公司</t>
+  </si>
+  <si>
+    <t>某国内大型服装/纺织/皮革公司</t>
+  </si>
+  <si>
+    <t>某上海咨询服务公司</t>
+  </si>
+  <si>
+    <t>塔斯汀</t>
+  </si>
+  <si>
+    <t>上海中梁物业发展有限公司</t>
+  </si>
+  <si>
+    <t>某知名房地产公司</t>
+  </si>
+  <si>
+    <t>成都辰显光电有限公司</t>
+  </si>
+  <si>
+    <t>励成营养</t>
+  </si>
+  <si>
+    <t>某上海批发零售公司</t>
+  </si>
+  <si>
+    <t>锐昂展览(上海)有限公司</t>
+  </si>
+  <si>
+    <t>上海龙胜实业有限公司</t>
+  </si>
+  <si>
+    <t>Natuzzi</t>
+  </si>
+  <si>
+    <t>某国内机械/设备上市公司</t>
+  </si>
+  <si>
+    <t>中海商业发展(深圳)有限公司</t>
+  </si>
+  <si>
+    <t>某大型公募基金</t>
+  </si>
+  <si>
+    <t>晶科科技</t>
+  </si>
+  <si>
+    <t>某专业服务公司</t>
+  </si>
+  <si>
+    <t>优时颜</t>
+  </si>
+  <si>
+    <t>迅驰时尚(上海)科技股份有限公司</t>
+  </si>
+  <si>
+    <t>某上海计算机软件公司</t>
+  </si>
+  <si>
+    <t>广州市利恒商业管理有限公司苏州分公司</t>
+  </si>
+  <si>
+    <t>御芯微科技</t>
+  </si>
+  <si>
+    <t>博罗那展览(上海)有限公司</t>
+  </si>
+  <si>
+    <t>万达商业管理集团有限公司上海分公司</t>
+  </si>
+  <si>
+    <t>北京他颜科技有限公司</t>
+  </si>
+  <si>
+    <t>鹤知信息</t>
+  </si>
+  <si>
+    <t>字节跳动</t>
+  </si>
+  <si>
+    <t>全速创想</t>
+  </si>
+  <si>
+    <t>宝原广告(上海)有限公司</t>
+  </si>
+  <si>
+    <t>永升服务集团</t>
+  </si>
+  <si>
+    <t>上海三渡</t>
+  </si>
+  <si>
+    <t>某大型人才科技集团有限公司</t>
+  </si>
+  <si>
+    <t>某上海室内娱乐公司</t>
+  </si>
+  <si>
+    <t>林清轩</t>
+  </si>
+  <si>
+    <t>上海星艋信息技术有限公司</t>
+  </si>
+  <si>
+    <t>上海瑞吉康生物医药有限公司</t>
+  </si>
+  <si>
+    <t>淘通</t>
+  </si>
+  <si>
+    <t>上海众引文化传播股份有限公司</t>
+  </si>
+  <si>
+    <t>安道设计</t>
+  </si>
+  <si>
+    <t>某国企地产公司</t>
+  </si>
+  <si>
+    <t>大悦城控股</t>
+  </si>
+  <si>
+    <t>某大型外资房地产公司</t>
+  </si>
+  <si>
+    <t>沃夫冈(北京)餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>好孩子集团</t>
+  </si>
+  <si>
     <t>上海品常网络科技有限公司</t>
   </si>
   <si>
-    <t>九晓(上海)信息技术有限公司</t>
-  </si>
-  <si>
-    <t>缙嘉集团</t>
-  </si>
-  <si>
-    <t>汉威士</t>
-  </si>
-  <si>
-    <t>兰源(上海)投资咨询有限公司</t>
-  </si>
-  <si>
-    <t>乐其集团</t>
-  </si>
-  <si>
-    <t>某大型知名电子商务公司</t>
-  </si>
-  <si>
-    <t>某国内大型服装/纺织/皮革公司</t>
-  </si>
-  <si>
-    <t>某上海咨询服务公司</t>
-  </si>
-  <si>
-    <t>塔斯汀</t>
-  </si>
-  <si>
-    <t>某知名房地产公司</t>
-  </si>
-  <si>
-    <t>励成营养</t>
-  </si>
-  <si>
-    <t>成都辰显光电有限公司</t>
-  </si>
-  <si>
-    <t>某上海批发零售公司</t>
-  </si>
-  <si>
-    <t>锐昂展览(上海)有限公司</t>
-  </si>
-  <si>
-    <t>上海龙胜实业有限公司</t>
-  </si>
-  <si>
-    <t>Natuzzi</t>
-  </si>
-  <si>
-    <t>某国内机械/设备上市公司</t>
-  </si>
-  <si>
-    <t>中海商业发展(深圳)有限公司</t>
-  </si>
-  <si>
-    <t>某大型公募基金</t>
-  </si>
-  <si>
-    <t>晶科科技</t>
-  </si>
-  <si>
-    <t>某专业服务公司</t>
-  </si>
-  <si>
-    <t>优时颜</t>
-  </si>
-  <si>
-    <t>迅驰时尚(上海)科技股份有限公司</t>
-  </si>
-  <si>
-    <t>某上海计算机软件公司</t>
-  </si>
-  <si>
-    <t>广州市利恒商业管理有限公司苏州分公司</t>
-  </si>
-  <si>
-    <t>万达商业管理集团有限公司上海分公司</t>
-  </si>
-  <si>
-    <t>御芯微科技</t>
-  </si>
-  <si>
-    <t>博罗那展览(上海)有限公司</t>
-  </si>
-  <si>
-    <t>北京他颜科技有限公司</t>
-  </si>
-  <si>
-    <t>鹤知信息</t>
-  </si>
-  <si>
-    <t>字节跳动</t>
-  </si>
-  <si>
-    <t>全速创想</t>
-  </si>
-  <si>
-    <t>宝原广告(上海)有限公司</t>
-  </si>
-  <si>
-    <t>永升服务集团</t>
-  </si>
-  <si>
-    <t>上海三渡</t>
-  </si>
-  <si>
-    <t>某大型人才科技集团有限公司</t>
-  </si>
-  <si>
-    <t>某上海室内娱乐公司</t>
-  </si>
-  <si>
-    <t>林清轩</t>
-  </si>
-  <si>
-    <t>上海星艋信息技术有限公司</t>
-  </si>
-  <si>
-    <t>上海瑞吉康生物医药有限公司</t>
-  </si>
-  <si>
-    <t>淘通</t>
-  </si>
-  <si>
-    <t>上海众引文化传播股份有限公司</t>
-  </si>
-  <si>
-    <t>安道设计</t>
-  </si>
-  <si>
-    <t>某国企地产公司</t>
-  </si>
-  <si>
-    <t>大悦城控股</t>
-  </si>
-  <si>
-    <t>某大型外资房地产公司</t>
-  </si>
-  <si>
-    <t>沃夫冈(北京)餐饮管理有限公司</t>
-  </si>
-  <si>
-    <t>好孩子集团</t>
-  </si>
-  <si>
     <t>利欧集团数字科技有限公司</t>
   </si>
   <si>
@@ -5860,9 +5863,6 @@
     <t>上海热因文化发展有限公司</t>
   </si>
   <si>
-    <t>上海中梁物业发展有限公司</t>
-  </si>
-  <si>
     <t>上海高鼎</t>
   </si>
   <si>
@@ -6370,12 +6370,12 @@
     <t>贸易/进出口</t>
   </si>
   <si>
+    <t>生物技术</t>
+  </si>
+  <si>
     <t>新能源</t>
   </si>
   <si>
-    <t>生物技术</t>
-  </si>
-  <si>
     <t>房地产开发经营</t>
   </si>
   <si>
@@ -6388,6 +6388,9 @@
     <t>室内娱乐</t>
   </si>
   <si>
+    <t>物业/商业管理</t>
+  </si>
+  <si>
     <t>房地产/建筑</t>
   </si>
   <si>
@@ -6403,9 +6406,6 @@
     <t>在线教育</t>
   </si>
   <si>
-    <t>物业/商业管理</t>
-  </si>
-  <si>
     <t>专业服务</t>
   </si>
   <si>
@@ -6847,15 +6847,15 @@
     <t>https://www.liepin.com/a/51632265.shtml</t>
   </si>
   <si>
+    <t>https://www.liepin.com/a/51178919.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1963397697.shtml</t>
+  </si>
+  <si>
     <t>https://www.liepin.com/a/51664611.shtml</t>
   </si>
   <si>
-    <t>https://www.liepin.com/a/51178919.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1963397697.shtml</t>
-  </si>
-  <si>
     <t>https://www.liepin.com/a/51303541.shtml</t>
   </si>
   <si>
@@ -6907,63 +6907,63 @@
     <t>https://www.liepin.com/a/51537745.shtml</t>
   </si>
   <si>
+    <t>https://www.liepin.com/a/50834681.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51304207.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1960073487.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1963698625.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1954307195.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1961930127.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51269687.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1963487391.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1960448229.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51079911.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1963853891.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51399693.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1962082113.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1960296359.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51482611.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/49875087.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51090737.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/50790491.shtml</t>
+  </si>
+  <si>
     <t>https://www.liepin.com/a/51086021.shtml</t>
   </si>
   <si>
-    <t>https://www.liepin.com/a/50834681.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51304207.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1960073487.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1963698625.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1954307195.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1961930127.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51269687.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1963487391.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1960448229.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51079911.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1963853891.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51399693.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1962082113.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1960296359.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51482611.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/49875087.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51090737.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/50790491.shtml</t>
-  </si>
-  <si>
     <t>https://www.liepin.com/a/49933477.shtml</t>
   </si>
   <si>
@@ -6997,252 +6997,255 @@
     <t>https://www.liepin.com/a/51762843.shtml</t>
   </si>
   <si>
+    <t>https://www.liepin.com/job/1961641403.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1955941319.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1955707367.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1961201619.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/49549553.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51209609.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1963583747.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51481783.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51444269.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51220429.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51702413.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1963129239.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51632851.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1954197859.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1963312153.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/50992729.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1959427063.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1956396839.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/50158797.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51267773.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1956496161.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1950956975.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1963613149.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/50922567.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1963759719.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1962111365.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/50908979.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1952814305.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1950916027.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/49767627.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1958326327.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1963050933.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1963313879.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51610905.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1959046049.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1930557301.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51337153.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51135395.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1956395113.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1962518295.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1962429385.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51389385.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1961831283.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1963535541.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1962987875.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1962670469.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1958437419.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/50391401.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1963054061.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51181093.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51628643.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1956526083.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51380641.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1958691681.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1958682071.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1938705327.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1961743079.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1961420647.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51697983.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1961827827.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51428463.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/51696179.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1961921453.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1958160831.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1960352613.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1959633641.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1957249305.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1956763275.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1953339917.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/50403987.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1954849409.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/50969223.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/50494053.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1959570125.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1960351139.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/49720761.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1961773979.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1961413071.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/50801237.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1955898745.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/a/49993631.shtml</t>
+  </si>
+  <si>
+    <t>https://www.liepin.com/job/1960941115.shtml</t>
+  </si>
+  <si>
     <t>https://www.liepin.com/job/1947810461.shtml</t>
   </si>
   <si>
-    <t>https://www.liepin.com/job/1961641403.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1955941319.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1955707367.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1961201619.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/49549553.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51209609.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1963583747.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51481783.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51444269.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51220429.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51702413.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1963129239.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51632851.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1963312153.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/50992729.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1956396839.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/50158797.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1959427063.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51267773.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1956496161.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1950956975.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1963613149.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/50922567.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1963759719.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1962111365.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/50908979.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1952814305.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1950916027.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/49767627.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1958326327.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1963050933.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1963313879.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51610905.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1959046049.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1930557301.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51337153.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51135395.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1962518295.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1963535541.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1962429385.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51389385.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1961831283.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1962987875.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1962670469.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1958437419.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/50391401.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1963054061.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51181093.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51628643.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1956526083.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51380641.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1958691681.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1958682071.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1938705327.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1961743079.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1956395113.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1961420647.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51697983.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1961827827.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51428463.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/51696179.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1961921453.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1958160831.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1960352613.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1959633641.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1957249305.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1956763275.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1953339917.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/50403987.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1954849409.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/50969223.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/50494053.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1959570125.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1960351139.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/49720761.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1961773979.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1961413071.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/50801237.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1955898745.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/a/49993631.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1960941115.shtml</t>
-  </si>
-  <si>
     <t>https://www.liepin.com/job/1961795553.shtml</t>
   </si>
   <si>
@@ -7484,9 +7487,6 @@
   </si>
   <si>
     <t>https://www.liepin.com/job/1948485213.shtml</t>
-  </si>
-  <si>
-    <t>https://www.liepin.com/job/1954197859.shtml</t>
   </si>
   <si>
     <t>https://www.liepin.com/job/1930792701.shtml</t>
@@ -12496,7 +12496,7 @@
         <v>923</v>
       </c>
       <c r="E92" t="s">
-        <v>1269</v>
+        <v>1234</v>
       </c>
       <c r="F92" t="s">
         <v>1551</v>
@@ -13650,13 +13650,13 @@
         <v>129</v>
       </c>
       <c r="C117" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D117" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E117" t="s">
-        <v>1311</v>
+        <v>1234</v>
       </c>
       <c r="F117" t="s">
         <v>1568</v>
@@ -13671,7 +13671,7 @@
         <v>1716</v>
       </c>
       <c r="J117" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="K117" t="s">
         <v>1736</v>
@@ -13697,37 +13697,34 @@
         <v>130</v>
       </c>
       <c r="C118" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D118" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E118" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="F118" t="s">
-        <v>1568</v>
+        <v>1530</v>
       </c>
       <c r="G118" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H118" t="s">
         <v>1711</v>
       </c>
       <c r="I118" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="J118" t="s">
-        <v>1720</v>
-      </c>
-      <c r="K118" t="s">
-        <v>1736</v>
+        <v>1717</v>
       </c>
       <c r="L118" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="M118" t="s">
-        <v>2090</v>
+        <v>2103</v>
       </c>
       <c r="N118" t="s">
         <v>2159</v>
@@ -13750,28 +13747,31 @@
         <v>939</v>
       </c>
       <c r="E119" t="s">
-        <v>1239</v>
+        <v>1311</v>
       </c>
       <c r="F119" t="s">
-        <v>1530</v>
+        <v>1568</v>
       </c>
       <c r="G119" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H119" t="s">
         <v>1711</v>
       </c>
       <c r="I119" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="J119" t="s">
         <v>1717</v>
       </c>
+      <c r="K119" t="s">
+        <v>1736</v>
+      </c>
       <c r="L119" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="M119" t="s">
-        <v>2103</v>
+        <v>2090</v>
       </c>
       <c r="N119" t="s">
         <v>2159</v>
@@ -14569,40 +14569,40 @@
         <v>149</v>
       </c>
       <c r="C137" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="D137" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="E137" t="s">
-        <v>1316</v>
+        <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1551</v>
+        <v>1568</v>
       </c>
       <c r="G137" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="H137" t="s">
         <v>1711</v>
       </c>
       <c r="I137" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J137" t="s">
         <v>1720</v>
       </c>
       <c r="K137" t="s">
-        <v>1724</v>
+        <v>1736</v>
       </c>
       <c r="L137" t="s">
-        <v>1839</v>
+        <v>1829</v>
       </c>
       <c r="M137" t="s">
-        <v>2118</v>
+        <v>2090</v>
       </c>
       <c r="N137" t="s">
-        <v>2154</v>
+        <v>2159</v>
       </c>
       <c r="O137" s="2" t="s">
         <v>2297</v>
@@ -14622,10 +14622,10 @@
         <v>937</v>
       </c>
       <c r="E138" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="F138" t="s">
-        <v>1568</v>
+        <v>1580</v>
       </c>
       <c r="G138" t="s">
         <v>1697</v>
@@ -14634,10 +14634,10 @@
         <v>1711</v>
       </c>
       <c r="I138" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="J138" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="K138" t="s">
         <v>1736</v>
@@ -14663,40 +14663,37 @@
         <v>151</v>
       </c>
       <c r="C139" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="D139" t="s">
-        <v>937</v>
+        <v>850</v>
       </c>
       <c r="E139" t="s">
-        <v>1273</v>
+        <v>1316</v>
       </c>
       <c r="F139" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="G139" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="H139" t="s">
         <v>1711</v>
       </c>
       <c r="I139" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="J139" t="s">
-        <v>1717</v>
-      </c>
-      <c r="K139" t="s">
-        <v>1736</v>
+        <v>1720</v>
       </c>
       <c r="L139" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="M139" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="N139" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>2299</v>
@@ -14713,31 +14710,31 @@
         <v>608</v>
       </c>
       <c r="D140" t="s">
-        <v>850</v>
+        <v>949</v>
       </c>
       <c r="E140" t="s">
         <v>1317</v>
       </c>
       <c r="F140" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="G140" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="H140" t="s">
         <v>1711</v>
       </c>
       <c r="I140" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J140" t="s">
         <v>1720</v>
       </c>
       <c r="L140" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="M140" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
       <c r="N140" t="s">
         <v>2157</v>
@@ -14760,31 +14757,31 @@
         <v>950</v>
       </c>
       <c r="E141" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="F141" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="G141" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H141" t="s">
         <v>1711</v>
       </c>
       <c r="I141" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J141" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="L141" t="s">
-        <v>1823</v>
+        <v>1839</v>
       </c>
       <c r="M141" t="s">
-        <v>2095</v>
+        <v>2118</v>
       </c>
       <c r="N141" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="O141" s="2" t="s">
         <v>2301</v>
@@ -14798,19 +14795,19 @@
         <v>154</v>
       </c>
       <c r="C142" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="D142" t="s">
         <v>951</v>
       </c>
       <c r="E142" t="s">
-        <v>1312</v>
+        <v>1232</v>
       </c>
       <c r="F142" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="G142" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="H142" t="s">
         <v>1711</v>
@@ -14819,16 +14816,16 @@
         <v>1714</v>
       </c>
       <c r="J142" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="L142" t="s">
-        <v>1840</v>
+        <v>1826</v>
       </c>
       <c r="M142" t="s">
-        <v>2119</v>
+        <v>2090</v>
       </c>
       <c r="N142" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>2302</v>
@@ -14842,19 +14839,19 @@
         <v>155</v>
       </c>
       <c r="C143" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D143" t="s">
         <v>952</v>
       </c>
       <c r="E143" t="s">
-        <v>1232</v>
+        <v>1312</v>
       </c>
       <c r="F143" t="s">
-        <v>1583</v>
+        <v>1524</v>
       </c>
       <c r="G143" t="s">
-        <v>1707</v>
+        <v>1695</v>
       </c>
       <c r="H143" t="s">
         <v>1711</v>
@@ -14863,16 +14860,16 @@
         <v>1714</v>
       </c>
       <c r="J143" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="L143" t="s">
-        <v>1826</v>
+        <v>1840</v>
       </c>
       <c r="M143" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="N143" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="O143" s="2" t="s">
         <v>2303</v>
@@ -14886,34 +14883,34 @@
         <v>156</v>
       </c>
       <c r="C144" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="D144" t="s">
-        <v>953</v>
+        <v>850</v>
       </c>
       <c r="E144" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="F144" t="s">
-        <v>1524</v>
+        <v>1584</v>
       </c>
       <c r="G144" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="H144" t="s">
         <v>1711</v>
       </c>
       <c r="I144" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J144" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="L144" t="s">
         <v>1841</v>
       </c>
       <c r="M144" t="s">
-        <v>2092</v>
+        <v>2100</v>
       </c>
       <c r="N144" t="s">
         <v>2158</v>
@@ -14933,22 +14930,22 @@
         <v>611</v>
       </c>
       <c r="D145" t="s">
-        <v>850</v>
+        <v>953</v>
       </c>
       <c r="E145" t="s">
-        <v>1301</v>
+        <v>1274</v>
       </c>
       <c r="F145" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="G145" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="H145" t="s">
         <v>1711</v>
       </c>
       <c r="I145" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="J145" t="s">
         <v>1717</v>
@@ -14957,10 +14954,10 @@
         <v>1842</v>
       </c>
       <c r="M145" t="s">
-        <v>2100</v>
+        <v>2090</v>
       </c>
       <c r="N145" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="O145" s="2" t="s">
         <v>2305</v>
@@ -14980,31 +14977,34 @@
         <v>954</v>
       </c>
       <c r="E146" t="s">
-        <v>1274</v>
+        <v>1317</v>
       </c>
       <c r="F146" t="s">
-        <v>1585</v>
+        <v>1551</v>
       </c>
       <c r="G146" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="H146" t="s">
         <v>1711</v>
       </c>
       <c r="I146" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J146" t="s">
         <v>1717</v>
       </c>
+      <c r="K146" t="s">
+        <v>1724</v>
+      </c>
       <c r="L146" t="s">
         <v>1843</v>
       </c>
       <c r="M146" t="s">
-        <v>2090</v>
+        <v>2119</v>
       </c>
       <c r="N146" t="s">
-        <v>2154</v>
+        <v>2160</v>
       </c>
       <c r="O146" s="2" t="s">
         <v>2306</v>
@@ -15018,40 +15018,40 @@
         <v>159</v>
       </c>
       <c r="C147" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D147" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="E147" t="s">
-        <v>1318</v>
+        <v>1276</v>
       </c>
       <c r="F147" t="s">
-        <v>1551</v>
+        <v>1525</v>
       </c>
       <c r="G147" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="H147" t="s">
         <v>1711</v>
       </c>
       <c r="I147" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J147" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="K147" t="s">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="L147" t="s">
-        <v>1839</v>
+        <v>1844</v>
       </c>
       <c r="M147" t="s">
-        <v>2118</v>
+        <v>2097</v>
       </c>
       <c r="N147" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="O147" s="2" t="s">
         <v>2307</v>
@@ -15065,40 +15065,40 @@
         <v>160</v>
       </c>
       <c r="C148" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D148" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E148" t="s">
-        <v>1276</v>
+        <v>1233</v>
       </c>
       <c r="F148" t="s">
-        <v>1525</v>
+        <v>1586</v>
       </c>
       <c r="G148" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H148" t="s">
         <v>1711</v>
       </c>
       <c r="I148" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="J148" t="s">
         <v>1720</v>
       </c>
       <c r="K148" t="s">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="L148" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="M148" t="s">
-        <v>2097</v>
+        <v>2120</v>
       </c>
       <c r="N148" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="O148" s="2" t="s">
         <v>2308</v>
@@ -15112,19 +15112,19 @@
         <v>161</v>
       </c>
       <c r="C149" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="D149" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E149" t="s">
-        <v>1233</v>
+        <v>1270</v>
       </c>
       <c r="F149" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="G149" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="H149" t="s">
         <v>1711</v>
@@ -15133,19 +15133,16 @@
         <v>1716</v>
       </c>
       <c r="J149" t="s">
-        <v>1720</v>
-      </c>
-      <c r="K149" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="L149" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="M149" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="N149" t="s">
-        <v>2154</v>
+        <v>2160</v>
       </c>
       <c r="O149" s="2" t="s">
         <v>2309</v>
@@ -15159,34 +15156,37 @@
         <v>162</v>
       </c>
       <c r="C150" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="D150" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E150" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F150" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="G150" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="H150" t="s">
         <v>1711</v>
       </c>
       <c r="I150" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="J150" t="s">
         <v>1717</v>
       </c>
+      <c r="K150" t="s">
+        <v>1733</v>
+      </c>
       <c r="L150" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="M150" t="s">
-        <v>2115</v>
+        <v>2121</v>
       </c>
       <c r="N150" t="s">
         <v>2160</v>
@@ -15203,40 +15203,37 @@
         <v>163</v>
       </c>
       <c r="C151" t="s">
-        <v>577</v>
+        <v>599</v>
       </c>
       <c r="D151" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E151" t="s">
-        <v>1269</v>
+        <v>1301</v>
       </c>
       <c r="F151" t="s">
-        <v>1588</v>
+        <v>1560</v>
       </c>
       <c r="G151" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="H151" t="s">
         <v>1711</v>
       </c>
       <c r="I151" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J151" t="s">
-        <v>1717</v>
-      </c>
-      <c r="K151" t="s">
-        <v>1733</v>
+        <v>1720</v>
       </c>
       <c r="L151" t="s">
-        <v>1847</v>
+        <v>1782</v>
       </c>
       <c r="M151" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="N151" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="O151" s="2" t="s">
         <v>2311</v>
@@ -15250,16 +15247,16 @@
         <v>164</v>
       </c>
       <c r="C152" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D152" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E152" t="s">
-        <v>1301</v>
+        <v>1318</v>
       </c>
       <c r="F152" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="G152" t="s">
         <v>1697</v>
@@ -15271,16 +15268,19 @@
         <v>1714</v>
       </c>
       <c r="J152" t="s">
-        <v>1720</v>
+        <v>1719</v>
+      </c>
+      <c r="K152" t="s">
+        <v>1724</v>
       </c>
       <c r="L152" t="s">
-        <v>1782</v>
+        <v>1848</v>
       </c>
       <c r="M152" t="s">
-        <v>2117</v>
+        <v>2122</v>
       </c>
       <c r="N152" t="s">
-        <v>2155</v>
+        <v>2160</v>
       </c>
       <c r="O152" s="2" t="s">
         <v>2312</v>
@@ -15294,16 +15294,16 @@
         <v>165</v>
       </c>
       <c r="C153" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D153" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="E153" t="s">
         <v>1319</v>
       </c>
       <c r="F153" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="G153" t="s">
         <v>1697</v>
@@ -15312,19 +15312,19 @@
         <v>1711</v>
       </c>
       <c r="I153" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J153" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="K153" t="s">
         <v>1724</v>
       </c>
       <c r="L153" t="s">
-        <v>1848</v>
+        <v>1843</v>
       </c>
       <c r="M153" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="N153" t="s">
         <v>2160</v>
@@ -15341,16 +15341,16 @@
         <v>166</v>
       </c>
       <c r="C154" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="D154" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="E154" t="s">
-        <v>1316</v>
+        <v>1271</v>
       </c>
       <c r="F154" t="s">
-        <v>1551</v>
+        <v>1518</v>
       </c>
       <c r="G154" t="s">
         <v>1697</v>
@@ -15368,13 +15368,13 @@
         <v>1724</v>
       </c>
       <c r="L154" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="M154" t="s">
-        <v>2118</v>
+        <v>2091</v>
       </c>
       <c r="N154" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>2314</v>
@@ -15388,40 +15388,40 @@
         <v>167</v>
       </c>
       <c r="C155" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="D155" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="E155" t="s">
-        <v>1271</v>
+        <v>1319</v>
       </c>
       <c r="F155" t="s">
-        <v>1518</v>
+        <v>1551</v>
       </c>
       <c r="G155" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="H155" t="s">
         <v>1711</v>
       </c>
       <c r="I155" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J155" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="K155" t="s">
         <v>1724</v>
       </c>
       <c r="L155" t="s">
-        <v>1833</v>
+        <v>1843</v>
       </c>
       <c r="M155" t="s">
-        <v>2091</v>
+        <v>2119</v>
       </c>
       <c r="N155" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="O155" s="2" t="s">
         <v>2315</v>
@@ -15949,34 +15949,34 @@
         <v>623</v>
       </c>
       <c r="D167" t="s">
-        <v>970</v>
+        <v>850</v>
       </c>
       <c r="E167" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
       <c r="F167" t="s">
-        <v>1529</v>
+        <v>1595</v>
       </c>
       <c r="G167" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="H167" t="s">
         <v>1711</v>
       </c>
       <c r="I167" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="J167" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="L167" t="s">
         <v>1857</v>
       </c>
       <c r="M167" t="s">
-        <v>2087</v>
+        <v>2097</v>
       </c>
       <c r="N167" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="O167" s="2" t="s">
         <v>2327</v>
@@ -15993,25 +15993,28 @@
         <v>624</v>
       </c>
       <c r="D168" t="s">
-        <v>850</v>
+        <v>970</v>
       </c>
       <c r="E168" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F168" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="G168" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="H168" t="s">
         <v>1711</v>
       </c>
       <c r="I168" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J168" t="s">
-        <v>1718</v>
+        <v>1717</v>
+      </c>
+      <c r="K168" t="s">
+        <v>1733</v>
       </c>
       <c r="L168" t="s">
         <v>1858</v>
@@ -16020,7 +16023,7 @@
         <v>2097</v>
       </c>
       <c r="N168" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="O168" s="2" t="s">
         <v>2328</v>
@@ -16037,34 +16040,31 @@
         <v>625</v>
       </c>
       <c r="D169" t="s">
-        <v>971</v>
+        <v>850</v>
       </c>
       <c r="E169" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F169" t="s">
-        <v>1596</v>
+        <v>1575</v>
       </c>
       <c r="G169" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="H169" t="s">
         <v>1711</v>
       </c>
       <c r="I169" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J169" t="s">
         <v>1717</v>
       </c>
-      <c r="K169" t="s">
-        <v>1733</v>
-      </c>
       <c r="L169" t="s">
         <v>1859</v>
       </c>
       <c r="M169" t="s">
-        <v>2097</v>
+        <v>2087</v>
       </c>
       <c r="N169" t="s">
         <v>2159</v>
@@ -16084,34 +16084,37 @@
         <v>626</v>
       </c>
       <c r="D170" t="s">
-        <v>850</v>
+        <v>971</v>
       </c>
       <c r="E170" t="s">
-        <v>1318</v>
+        <v>1267</v>
       </c>
       <c r="F170" t="s">
-        <v>1575</v>
+        <v>1597</v>
       </c>
       <c r="G170" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H170" t="s">
         <v>1711</v>
       </c>
       <c r="I170" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J170" t="s">
-        <v>1717</v>
+        <v>1718</v>
+      </c>
+      <c r="K170" t="s">
+        <v>1733</v>
       </c>
       <c r="L170" t="s">
         <v>1860</v>
       </c>
       <c r="M170" t="s">
-        <v>2087</v>
+        <v>2123</v>
       </c>
       <c r="N170" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>2330</v>
@@ -16131,10 +16134,10 @@
         <v>972</v>
       </c>
       <c r="E171" t="s">
-        <v>1267</v>
+        <v>1312</v>
       </c>
       <c r="F171" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="G171" t="s">
         <v>1697</v>
@@ -16143,22 +16146,22 @@
         <v>1711</v>
       </c>
       <c r="I171" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J171" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="K171" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="L171" t="s">
-        <v>1861</v>
+        <v>1788</v>
       </c>
       <c r="M171" t="s">
-        <v>2123</v>
+        <v>2091</v>
       </c>
       <c r="N171" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="O171" s="2" t="s">
         <v>2331</v>
@@ -16175,13 +16178,13 @@
         <v>628</v>
       </c>
       <c r="D172" t="s">
-        <v>973</v>
+        <v>954</v>
       </c>
       <c r="E172" t="s">
-        <v>1312</v>
+        <v>1272</v>
       </c>
       <c r="F172" t="s">
-        <v>1598</v>
+        <v>1551</v>
       </c>
       <c r="G172" t="s">
         <v>1697</v>
@@ -16190,22 +16193,22 @@
         <v>1711</v>
       </c>
       <c r="I172" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="J172" t="s">
         <v>1720</v>
       </c>
       <c r="K172" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="L172" t="s">
-        <v>1788</v>
+        <v>1843</v>
       </c>
       <c r="M172" t="s">
-        <v>2091</v>
+        <v>2119</v>
       </c>
       <c r="N172" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>2332</v>
@@ -16222,37 +16225,34 @@
         <v>629</v>
       </c>
       <c r="D173" t="s">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="E173" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="F173" t="s">
-        <v>1551</v>
+        <v>1527</v>
       </c>
       <c r="G173" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="H173" t="s">
         <v>1711</v>
       </c>
       <c r="I173" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="J173" t="s">
         <v>1720</v>
       </c>
-      <c r="K173" t="s">
-        <v>1724</v>
-      </c>
       <c r="L173" t="s">
-        <v>1839</v>
+        <v>1861</v>
       </c>
       <c r="M173" t="s">
-        <v>2118</v>
+        <v>2091</v>
       </c>
       <c r="N173" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="O173" s="2" t="s">
         <v>2333</v>
@@ -16272,31 +16272,34 @@
         <v>974</v>
       </c>
       <c r="E174" t="s">
-        <v>1268</v>
+        <v>1301</v>
       </c>
       <c r="F174" t="s">
-        <v>1527</v>
+        <v>1599</v>
       </c>
       <c r="G174" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="H174" t="s">
         <v>1711</v>
       </c>
       <c r="I174" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J174" t="s">
-        <v>1720</v>
+        <v>1717</v>
+      </c>
+      <c r="K174" t="s">
+        <v>1736</v>
       </c>
       <c r="L174" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="M174" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="N174" t="s">
-        <v>2161</v>
+        <v>2156</v>
       </c>
       <c r="O174" s="2" t="s">
         <v>2334</v>
@@ -16316,10 +16319,10 @@
         <v>975</v>
       </c>
       <c r="E175" t="s">
-        <v>1301</v>
+        <v>1255</v>
       </c>
       <c r="F175" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="G175" t="s">
         <v>1697</v>
@@ -16328,22 +16331,22 @@
         <v>1711</v>
       </c>
       <c r="I175" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J175" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="K175" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="L175" t="s">
-        <v>1856</v>
+        <v>1862</v>
       </c>
       <c r="M175" t="s">
-        <v>2088</v>
+        <v>2097</v>
       </c>
       <c r="N175" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="O175" s="2" t="s">
         <v>2335</v>
@@ -16363,13 +16366,13 @@
         <v>976</v>
       </c>
       <c r="E176" t="s">
-        <v>1255</v>
+        <v>1272</v>
       </c>
       <c r="F176" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="G176" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="H176" t="s">
         <v>1711</v>
@@ -16378,7 +16381,7 @@
         <v>1714</v>
       </c>
       <c r="J176" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="K176" t="s">
         <v>1723</v>
@@ -16387,10 +16390,10 @@
         <v>1863</v>
       </c>
       <c r="M176" t="s">
-        <v>2097</v>
+        <v>2106</v>
       </c>
       <c r="N176" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="O176" s="2" t="s">
         <v>2336</v>
@@ -16404,40 +16407,37 @@
         <v>189</v>
       </c>
       <c r="C177" t="s">
-        <v>633</v>
+        <v>536</v>
       </c>
       <c r="D177" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="E177" t="s">
-        <v>1272</v>
+        <v>1317</v>
       </c>
       <c r="F177" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="G177" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="H177" t="s">
         <v>1711</v>
       </c>
       <c r="I177" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J177" t="s">
-        <v>1717</v>
-      </c>
-      <c r="K177" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="L177" t="s">
         <v>1864</v>
       </c>
       <c r="M177" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="N177" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="O177" s="2" t="s">
         <v>2337</v>
@@ -16451,19 +16451,19 @@
         <v>190</v>
       </c>
       <c r="C178" t="s">
-        <v>536</v>
+        <v>633</v>
       </c>
       <c r="D178" t="s">
-        <v>969</v>
+        <v>850</v>
       </c>
       <c r="E178" t="s">
-        <v>1318</v>
+        <v>1271</v>
       </c>
       <c r="F178" t="s">
-        <v>1602</v>
+        <v>1500</v>
       </c>
       <c r="G178" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="H178" t="s">
         <v>1711</v>
@@ -16472,16 +16472,19 @@
         <v>1713</v>
       </c>
       <c r="J178" t="s">
-        <v>1719</v>
+        <v>1718</v>
+      </c>
+      <c r="K178" t="s">
+        <v>1734</v>
       </c>
       <c r="L178" t="s">
         <v>1865</v>
       </c>
       <c r="M178" t="s">
-        <v>2108</v>
+        <v>2092</v>
       </c>
       <c r="N178" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="O178" s="2" t="s">
         <v>2338</v>
@@ -16495,40 +16498,40 @@
         <v>191</v>
       </c>
       <c r="C179" t="s">
-        <v>634</v>
+        <v>593</v>
       </c>
       <c r="D179" t="s">
-        <v>850</v>
+        <v>977</v>
       </c>
       <c r="E179" t="s">
-        <v>1271</v>
+        <v>1255</v>
       </c>
       <c r="F179" t="s">
-        <v>1500</v>
+        <v>1568</v>
       </c>
       <c r="G179" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="H179" t="s">
         <v>1711</v>
       </c>
       <c r="I179" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="J179" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="K179" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="L179" t="s">
-        <v>1866</v>
+        <v>1829</v>
       </c>
       <c r="M179" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="N179" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="O179" s="2" t="s">
         <v>2339</v>
@@ -16542,16 +16545,16 @@
         <v>192</v>
       </c>
       <c r="C180" t="s">
-        <v>593</v>
+        <v>634</v>
       </c>
       <c r="D180" t="s">
         <v>978</v>
       </c>
       <c r="E180" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="F180" t="s">
-        <v>1568</v>
+        <v>1511</v>
       </c>
       <c r="G180" t="s">
         <v>1697</v>
@@ -16560,22 +16563,19 @@
         <v>1711</v>
       </c>
       <c r="I180" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="J180" t="s">
         <v>1717</v>
       </c>
-      <c r="K180" t="s">
-        <v>1736</v>
-      </c>
       <c r="L180" t="s">
-        <v>1829</v>
+        <v>1866</v>
       </c>
       <c r="M180" t="s">
-        <v>2090</v>
+        <v>2124</v>
       </c>
       <c r="N180" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="O180" s="2" t="s">
         <v>2340</v>
@@ -16663,7 +16663,7 @@
         <v>1867</v>
       </c>
       <c r="M182" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="N182" t="s">
         <v>2154</v>
@@ -16686,19 +16686,19 @@
         <v>980</v>
       </c>
       <c r="E183" t="s">
-        <v>1300</v>
+        <v>1277</v>
       </c>
       <c r="F183" t="s">
-        <v>1604</v>
+        <v>1556</v>
       </c>
       <c r="G183" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="H183" t="s">
         <v>1711</v>
       </c>
       <c r="I183" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J183" t="s">
         <v>1717</v>
@@ -16707,7 +16707,7 @@
         <v>1868</v>
       </c>
       <c r="M183" t="s">
-        <v>2090</v>
+        <v>2100</v>
       </c>
       <c r="N183" t="s">
         <v>2158</v>
@@ -16724,37 +16724,37 @@
         <v>196</v>
       </c>
       <c r="C184" t="s">
-        <v>536</v>
+        <v>638</v>
       </c>
       <c r="D184" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="E184" t="s">
-        <v>1239</v>
+        <v>1300</v>
       </c>
       <c r="F184" t="s">
-        <v>1577</v>
+        <v>1604</v>
       </c>
       <c r="G184" t="s">
-        <v>1697</v>
+        <v>1706</v>
       </c>
       <c r="H184" t="s">
         <v>1711</v>
       </c>
       <c r="I184" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="J184" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="L184" t="s">
-        <v>1782</v>
+        <v>1869</v>
       </c>
       <c r="M184" t="s">
-        <v>2106</v>
+        <v>2090</v>
       </c>
       <c r="N184" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="O184" s="2" t="s">
         <v>2344</v>
@@ -16768,37 +16768,37 @@
         <v>197</v>
       </c>
       <c r="C185" t="s">
-        <v>638</v>
+        <v>536</v>
       </c>
       <c r="D185" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="E185" t="s">
-        <v>1277</v>
+        <v>1239</v>
       </c>
       <c r="F185" t="s">
-        <v>1556</v>
+        <v>1577</v>
       </c>
       <c r="G185" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="H185" t="s">
         <v>1711</v>
       </c>
       <c r="I185" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="J185" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="L185" t="s">
-        <v>1869</v>
+        <v>1782</v>
       </c>
       <c r="M185" t="s">
-        <v>2100</v>
+        <v>2106</v>
       </c>
       <c r="N185" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="O185" s="2" t="s">
         <v>2345</v>
@@ -16924,7 +16924,7 @@
         <v>1720</v>
       </c>
       <c r="L188" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="M188" t="s">
         <v>2090</v>
@@ -16971,7 +16971,7 @@
         <v>1872</v>
       </c>
       <c r="M189" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="N189" t="s">
         <v>2159</v>
@@ -17062,7 +17062,7 @@
         <v>1873</v>
       </c>
       <c r="M191" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="N191" t="s">
         <v>2158</v>
@@ -17176,7 +17176,7 @@
         <v>850</v>
       </c>
       <c r="E194" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F194" t="s">
         <v>1553</v>
@@ -17194,7 +17194,7 @@
         <v>1717</v>
       </c>
       <c r="L194" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="M194" t="s">
         <v>2087</v>
@@ -17288,7 +17288,7 @@
         <v>1876</v>
       </c>
       <c r="M196" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="N196" t="s">
         <v>2158</v>
@@ -17355,7 +17355,7 @@
         <v>649</v>
       </c>
       <c r="D198" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="E198" t="s">
         <v>1299</v>
@@ -17382,7 +17382,7 @@
         <v>1877</v>
       </c>
       <c r="M198" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="N198" t="s">
         <v>2160</v>
@@ -17520,7 +17520,7 @@
         <v>1879</v>
       </c>
       <c r="M201" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="N201" t="s">
         <v>2158</v>
@@ -17678,37 +17678,37 @@
         <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="D205" t="s">
-        <v>850</v>
+        <v>994</v>
       </c>
       <c r="E205" t="s">
-        <v>1267</v>
+        <v>1276</v>
       </c>
       <c r="F205" t="s">
         <v>1609</v>
       </c>
       <c r="G205" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="H205" t="s">
         <v>1711</v>
       </c>
       <c r="I205" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="J205" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="L205" t="s">
-        <v>1882</v>
+        <v>1869</v>
       </c>
       <c r="M205" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="N205" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="O205" s="2" t="s">
         <v>2365</v>
@@ -17722,7 +17722,7 @@
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="D206" t="s">
         <v>850</v>
@@ -17734,7 +17734,7 @@
         <v>1610</v>
       </c>
       <c r="G206" t="s">
-        <v>1697</v>
+        <v>1708</v>
       </c>
       <c r="H206" t="s">
         <v>1711</v>
@@ -17746,10 +17746,13 @@
         <v>1717</v>
       </c>
       <c r="L206" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="M206" t="s">
-        <v>2098</v>
+        <v>2088</v>
+      </c>
+      <c r="N206" t="s">
+        <v>2161</v>
       </c>
       <c r="O206" s="2" t="s">
         <v>2366</v>
@@ -17787,7 +17790,7 @@
         <v>1718</v>
       </c>
       <c r="L207" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="M207" t="s">
         <v>2100</v>
@@ -17810,7 +17813,7 @@
         <v>656</v>
       </c>
       <c r="D208" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E208" t="s">
         <v>1233</v>
@@ -17857,7 +17860,7 @@
         <v>577</v>
       </c>
       <c r="D209" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E209" t="s">
         <v>1270</v>
@@ -17878,7 +17881,7 @@
         <v>1718</v>
       </c>
       <c r="L209" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="M209" t="s">
         <v>2087</v>
@@ -17898,19 +17901,19 @@
         <v>222</v>
       </c>
       <c r="C210" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="D210" t="s">
-        <v>996</v>
+        <v>850</v>
       </c>
       <c r="E210" t="s">
-        <v>1255</v>
+        <v>1234</v>
       </c>
       <c r="F210" t="s">
-        <v>1529</v>
+        <v>1613</v>
       </c>
       <c r="G210" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
       <c r="H210" t="s">
         <v>1711</v>
@@ -17922,10 +17925,10 @@
         <v>1717</v>
       </c>
       <c r="L210" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="M210" t="s">
-        <v>2087</v>
+        <v>2098</v>
       </c>
       <c r="O210" s="2" t="s">
         <v>2370</v>
@@ -17939,40 +17942,34 @@
         <v>223</v>
       </c>
       <c r="C211" t="s">
-        <v>657</v>
+        <v>570</v>
       </c>
       <c r="D211" t="s">
         <v>997</v>
       </c>
       <c r="E211" t="s">
-        <v>1311</v>
+        <v>1255</v>
       </c>
       <c r="F211" t="s">
-        <v>1613</v>
+        <v>1529</v>
       </c>
       <c r="G211" t="s">
-        <v>1701</v>
+        <v>1707</v>
       </c>
       <c r="H211" t="s">
         <v>1711</v>
       </c>
       <c r="I211" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J211" t="s">
-        <v>1718</v>
-      </c>
-      <c r="K211" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="L211" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="M211" t="s">
-        <v>2128</v>
-      </c>
-      <c r="N211" t="s">
-        <v>2156</v>
+        <v>2087</v>
       </c>
       <c r="O211" s="2" t="s">
         <v>2371</v>
@@ -17986,19 +17983,19 @@
         <v>224</v>
       </c>
       <c r="C212" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D212" t="s">
         <v>998</v>
       </c>
       <c r="E212" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="F212" t="s">
         <v>1614</v>
       </c>
       <c r="G212" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="H212" t="s">
         <v>1711</v>
@@ -18007,19 +18004,19 @@
         <v>1715</v>
       </c>
       <c r="J212" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="K212" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="L212" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="M212" t="s">
-        <v>2091</v>
+        <v>2129</v>
       </c>
       <c r="N212" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="O212" s="2" t="s">
         <v>2372</v>
@@ -18033,40 +18030,40 @@
         <v>225</v>
       </c>
       <c r="C213" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D213" t="s">
         <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>1310</v>
+        <v>1315</v>
       </c>
       <c r="F213" t="s">
         <v>1615</v>
       </c>
       <c r="G213" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H213" t="s">
         <v>1711</v>
       </c>
       <c r="I213" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="J213" t="s">
         <v>1717</v>
       </c>
       <c r="K213" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="L213" t="s">
-        <v>1832</v>
+        <v>1888</v>
       </c>
       <c r="M213" t="s">
-        <v>2116</v>
+        <v>2091</v>
       </c>
       <c r="N213" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
       <c r="O213" s="2" t="s">
         <v>2373</v>
@@ -18080,34 +18077,40 @@
         <v>226</v>
       </c>
       <c r="C214" t="s">
-        <v>577</v>
+        <v>659</v>
       </c>
       <c r="D214" t="s">
         <v>1000</v>
       </c>
       <c r="E214" t="s">
-        <v>1267</v>
+        <v>1310</v>
       </c>
       <c r="F214" t="s">
         <v>1616</v>
       </c>
       <c r="G214" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="H214" t="s">
         <v>1711</v>
       </c>
       <c r="I214" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="J214" t="s">
         <v>1717</v>
       </c>
+      <c r="K214" t="s">
+        <v>1724</v>
+      </c>
       <c r="L214" t="s">
-        <v>1883</v>
+        <v>1832</v>
       </c>
       <c r="M214" t="s">
-        <v>2098</v>
+        <v>2116</v>
+      </c>
+      <c r="N214" t="s">
+        <v>2161</v>
       </c>
       <c r="O214" s="2" t="s">
         <v>2374</v>
@@ -18121,40 +18124,34 @@
         <v>227</v>
       </c>
       <c r="C215" t="s">
-        <v>660</v>
+        <v>577</v>
       </c>
       <c r="D215" t="s">
         <v>1001</v>
       </c>
       <c r="E215" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="F215" t="s">
-        <v>1511</v>
+        <v>1617</v>
       </c>
       <c r="G215" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="H215" t="s">
         <v>1711</v>
       </c>
       <c r="I215" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J215" t="s">
-        <v>1719</v>
-      </c>
-      <c r="K215" t="s">
-        <v>1737</v>
+        <v>1717</v>
       </c>
       <c r="L215" t="s">
-        <v>1854</v>
+        <v>1885</v>
       </c>
       <c r="M215" t="s">
-        <v>2087</v>
-      </c>
-      <c r="N215" t="s">
-        <v>2156</v>
+        <v>2098</v>
       </c>
       <c r="O215" s="2" t="s">
         <v>2375</v>
@@ -18168,16 +18165,16 @@
         <v>228</v>
       </c>
       <c r="C216" t="s">
-        <v>593</v>
+        <v>660</v>
       </c>
       <c r="D216" t="s">
-        <v>937</v>
+        <v>1002</v>
       </c>
       <c r="E216" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="F216" t="s">
-        <v>1542</v>
+        <v>1511</v>
       </c>
       <c r="G216" t="s">
         <v>1697</v>
@@ -18186,22 +18183,22 @@
         <v>1711</v>
       </c>
       <c r="I216" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J216" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="K216" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="L216" t="s">
-        <v>1829</v>
+        <v>1854</v>
       </c>
       <c r="M216" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="N216" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="O216" s="2" t="s">
         <v>2376</v>
@@ -18215,37 +18212,40 @@
         <v>229</v>
       </c>
       <c r="C217" t="s">
-        <v>661</v>
+        <v>593</v>
       </c>
       <c r="D217" t="s">
-        <v>1002</v>
+        <v>937</v>
       </c>
       <c r="E217" t="s">
-        <v>1316</v>
+        <v>1255</v>
       </c>
       <c r="F217" t="s">
-        <v>1583</v>
+        <v>1542</v>
       </c>
       <c r="G217" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H217" t="s">
         <v>1711</v>
       </c>
       <c r="I217" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J217" t="s">
-        <v>1717</v>
+        <v>1718</v>
+      </c>
+      <c r="K217" t="s">
+        <v>1736</v>
       </c>
       <c r="L217" t="s">
-        <v>1889</v>
+        <v>1829</v>
       </c>
       <c r="M217" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="N217" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="O217" s="2" t="s">
         <v>2377</v>
@@ -18259,40 +18259,37 @@
         <v>230</v>
       </c>
       <c r="C218" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D218" t="s">
         <v>1003</v>
       </c>
       <c r="E218" t="s">
-        <v>1270</v>
+        <v>1319</v>
       </c>
       <c r="F218" t="s">
-        <v>1608</v>
+        <v>1583</v>
       </c>
       <c r="G218" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="H218" t="s">
         <v>1711</v>
       </c>
       <c r="I218" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="J218" t="s">
         <v>1717</v>
       </c>
-      <c r="K218" t="s">
-        <v>1723</v>
-      </c>
       <c r="L218" t="s">
-        <v>1838</v>
+        <v>1889</v>
       </c>
       <c r="M218" t="s">
-        <v>2117</v>
+        <v>2091</v>
       </c>
       <c r="N218" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="O218" s="2" t="s">
         <v>2378</v>
@@ -18306,37 +18303,40 @@
         <v>231</v>
       </c>
       <c r="C219" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D219" t="s">
         <v>1004</v>
       </c>
       <c r="E219" t="s">
-        <v>1324</v>
+        <v>1270</v>
       </c>
       <c r="F219" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="G219" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="H219" t="s">
         <v>1711</v>
       </c>
       <c r="I219" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="J219" t="s">
-        <v>1720</v>
+        <v>1717</v>
+      </c>
+      <c r="K219" t="s">
+        <v>1723</v>
       </c>
       <c r="L219" t="s">
-        <v>1890</v>
+        <v>1838</v>
       </c>
       <c r="M219" t="s">
-        <v>2087</v>
+        <v>2117</v>
       </c>
       <c r="N219" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="O219" s="2" t="s">
         <v>2379</v>
@@ -18350,7 +18350,7 @@
         <v>232</v>
       </c>
       <c r="C220" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D220" t="s">
         <v>1005</v>
@@ -18394,19 +18394,19 @@
         <v>233</v>
       </c>
       <c r="C221" t="s">
-        <v>599</v>
+        <v>664</v>
       </c>
       <c r="D221" t="s">
         <v>1006</v>
       </c>
       <c r="E221" t="s">
-        <v>1276</v>
+        <v>1324</v>
       </c>
       <c r="F221" t="s">
-        <v>1617</v>
+        <v>1566</v>
       </c>
       <c r="G221" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="H221" t="s">
         <v>1711</v>
@@ -18415,16 +18415,16 @@
         <v>1713</v>
       </c>
       <c r="J221" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="L221" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M221" t="s">
-        <v>2129</v>
+        <v>2087</v>
       </c>
       <c r="N221" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="O221" s="2" t="s">
         <v>2381</v>
@@ -18438,37 +18438,37 @@
         <v>234</v>
       </c>
       <c r="C222" t="s">
-        <v>665</v>
+        <v>599</v>
       </c>
       <c r="D222" t="s">
         <v>1007</v>
       </c>
       <c r="E222" t="s">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="F222" t="s">
         <v>1618</v>
       </c>
       <c r="G222" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H222" t="s">
         <v>1711</v>
       </c>
       <c r="I222" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J222" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="L222" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="M222" t="s">
-        <v>2087</v>
+        <v>2124</v>
       </c>
       <c r="N222" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="O222" s="2" t="s">
         <v>2382</v>
@@ -18482,34 +18482,34 @@
         <v>235</v>
       </c>
       <c r="C223" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="D223" t="s">
         <v>1008</v>
       </c>
       <c r="E223" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="F223" t="s">
         <v>1619</v>
       </c>
       <c r="G223" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="H223" t="s">
         <v>1711</v>
       </c>
       <c r="I223" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J223" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="L223" t="s">
-        <v>1868</v>
+        <v>1892</v>
       </c>
       <c r="M223" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="N223" t="s">
         <v>2158</v>
@@ -18550,7 +18550,7 @@
         <v>1717</v>
       </c>
       <c r="L224" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="M224" t="s">
         <v>2087</v>
@@ -18638,7 +18638,7 @@
         <v>1718</v>
       </c>
       <c r="L226" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="M226" t="s">
         <v>2087</v>
@@ -19072,7 +19072,7 @@
         <v>598</v>
       </c>
       <c r="D236" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E236" t="s">
         <v>1332</v>
@@ -19263,7 +19263,7 @@
         <v>1022</v>
       </c>
       <c r="E240" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F240" t="s">
         <v>1522</v>
@@ -19375,7 +19375,7 @@
         <v>1901</v>
       </c>
       <c r="M242" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="N242" t="s">
         <v>2154</v>
@@ -19507,7 +19507,7 @@
         <v>1903</v>
       </c>
       <c r="M245" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="N245" t="s">
         <v>2158</v>
@@ -19668,19 +19668,19 @@
         <v>1029</v>
       </c>
       <c r="E249" t="s">
-        <v>1276</v>
+        <v>1234</v>
       </c>
       <c r="F249" t="s">
-        <v>1617</v>
+        <v>1529</v>
       </c>
       <c r="G249" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="H249" t="s">
         <v>1711</v>
       </c>
       <c r="I249" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J249" t="s">
         <v>1717</v>
@@ -19692,7 +19692,7 @@
         <v>2087</v>
       </c>
       <c r="N249" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="O249" s="2" t="s">
         <v>2409</v>
@@ -19712,34 +19712,31 @@
         <v>1030</v>
       </c>
       <c r="E250" t="s">
-        <v>1331</v>
+        <v>1276</v>
       </c>
       <c r="F250" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="G250" t="s">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="H250" t="s">
         <v>1711</v>
       </c>
       <c r="I250" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="J250" t="s">
         <v>1717</v>
       </c>
-      <c r="K250" t="s">
-        <v>1733</v>
-      </c>
       <c r="L250" t="s">
-        <v>1896</v>
+        <v>1907</v>
       </c>
       <c r="M250" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="N250" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="O250" s="2" t="s">
         <v>2410</v>
@@ -19759,28 +19756,34 @@
         <v>1031</v>
       </c>
       <c r="E251" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="F251" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="G251" t="s">
-        <v>1708</v>
+        <v>1701</v>
       </c>
       <c r="H251" t="s">
         <v>1711</v>
       </c>
       <c r="I251" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="J251" t="s">
         <v>1717</v>
       </c>
+      <c r="K251" t="s">
+        <v>1733</v>
+      </c>
       <c r="L251" t="s">
-        <v>1907</v>
+        <v>1896</v>
       </c>
       <c r="M251" t="s">
-        <v>2088</v>
+        <v>2091</v>
+      </c>
+      <c r="N251" t="s">
+        <v>2157</v>
       </c>
       <c r="O251" s="2" t="s">
         <v>2411</v>
@@ -19794,19 +19797,19 @@
         <v>264</v>
       </c>
       <c r="C252" t="s">
-        <v>618</v>
+        <v>686</v>
       </c>
       <c r="D252" t="s">
         <v>1032</v>
       </c>
       <c r="E252" t="s">
-        <v>1328</v>
+        <v>1336</v>
       </c>
       <c r="F252" t="s">
-        <v>1560</v>
+        <v>1630</v>
       </c>
       <c r="G252" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="H252" t="s">
         <v>1711</v>
@@ -19815,16 +19818,13 @@
         <v>1714</v>
       </c>
       <c r="J252" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="L252" t="s">
         <v>1908</v>
       </c>
       <c r="M252" t="s">
-        <v>2089</v>
-      </c>
-      <c r="N252" t="s">
-        <v>2158</v>
+        <v>2088</v>
       </c>
       <c r="O252" s="2" t="s">
         <v>2412</v>
@@ -19838,40 +19838,37 @@
         <v>265</v>
       </c>
       <c r="C253" t="s">
-        <v>686</v>
+        <v>618</v>
       </c>
       <c r="D253" t="s">
         <v>1033</v>
       </c>
       <c r="E253" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="F253" t="s">
-        <v>1631</v>
+        <v>1560</v>
       </c>
       <c r="G253" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
       <c r="H253" t="s">
         <v>1711</v>
       </c>
       <c r="I253" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J253" t="s">
-        <v>1717</v>
-      </c>
-      <c r="K253" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="L253" t="s">
         <v>1909</v>
       </c>
       <c r="M253" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="N253" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
       <c r="O253" s="2" t="s">
         <v>2413</v>
@@ -19888,34 +19885,34 @@
         <v>687</v>
       </c>
       <c r="D254" t="s">
-        <v>922</v>
+        <v>1034</v>
       </c>
       <c r="E254" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="F254" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G254" t="s">
-        <v>1697</v>
+        <v>1709</v>
       </c>
       <c r="H254" t="s">
         <v>1711</v>
       </c>
       <c r="I254" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J254" t="s">
         <v>1717</v>
       </c>
       <c r="K254" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="L254" t="s">
-        <v>1811</v>
+        <v>1910</v>
       </c>
       <c r="M254" t="s">
-        <v>2110</v>
+        <v>2091</v>
       </c>
       <c r="N254" t="s">
         <v>2154</v>
@@ -19932,16 +19929,16 @@
         <v>267</v>
       </c>
       <c r="C255" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="D255" t="s">
-        <v>872</v>
+        <v>922</v>
       </c>
       <c r="E255" t="s">
         <v>1321</v>
       </c>
       <c r="F255" t="s">
-        <v>1577</v>
+        <v>1632</v>
       </c>
       <c r="G255" t="s">
         <v>1697</v>
@@ -19953,16 +19950,16 @@
         <v>1714</v>
       </c>
       <c r="J255" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="K255" t="s">
-        <v>1724</v>
+        <v>1729</v>
       </c>
       <c r="L255" t="s">
-        <v>1839</v>
+        <v>1811</v>
       </c>
       <c r="M255" t="s">
-        <v>2118</v>
+        <v>2110</v>
       </c>
       <c r="N255" t="s">
         <v>2154</v>
@@ -19979,16 +19976,16 @@
         <v>268</v>
       </c>
       <c r="C256" t="s">
-        <v>688</v>
+        <v>612</v>
       </c>
       <c r="D256" t="s">
-        <v>1034</v>
+        <v>872</v>
       </c>
       <c r="E256" t="s">
-        <v>1338</v>
+        <v>1321</v>
       </c>
       <c r="F256" t="s">
-        <v>1633</v>
+        <v>1577</v>
       </c>
       <c r="G256" t="s">
         <v>1697</v>
@@ -20000,16 +19997,19 @@
         <v>1714</v>
       </c>
       <c r="J256" t="s">
-        <v>1717</v>
+        <v>1720</v>
+      </c>
+      <c r="K256" t="s">
+        <v>1724</v>
       </c>
       <c r="L256" t="s">
-        <v>1910</v>
+        <v>1843</v>
       </c>
       <c r="M256" t="s">
-        <v>2087</v>
+        <v>2119</v>
       </c>
       <c r="N256" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="O256" s="2" t="s">
         <v>2416</v>
@@ -20023,19 +20023,19 @@
         <v>269</v>
       </c>
       <c r="C257" t="s">
-        <v>605</v>
+        <v>689</v>
       </c>
       <c r="D257" t="s">
         <v>1035</v>
       </c>
       <c r="E257" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F257" t="s">
-        <v>1591</v>
+        <v>1633</v>
       </c>
       <c r="G257" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="H257" t="s">
         <v>1711</v>
@@ -20044,19 +20044,16 @@
         <v>1714</v>
       </c>
       <c r="J257" t="s">
-        <v>1720</v>
-      </c>
-      <c r="K257" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="L257" t="s">
-        <v>1782</v>
+        <v>1911</v>
       </c>
       <c r="M257" t="s">
-        <v>2132</v>
+        <v>2087</v>
       </c>
       <c r="N257" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="O257" s="2" t="s">
         <v>2417</v>
@@ -20073,13 +20070,13 @@
         <v>605</v>
       </c>
       <c r="D258" t="s">
-        <v>850</v>
+        <v>1036</v>
       </c>
       <c r="E258" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F258" t="s">
-        <v>1634</v>
+        <v>1591</v>
       </c>
       <c r="G258" t="s">
         <v>1705</v>
@@ -20094,16 +20091,16 @@
         <v>1720</v>
       </c>
       <c r="K258" t="s">
-        <v>1734</v>
+        <v>1723</v>
       </c>
       <c r="L258" t="s">
         <v>1782</v>
       </c>
       <c r="M258" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="N258" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="O258" s="2" t="s">
         <v>2418</v>
@@ -20117,19 +20114,19 @@
         <v>271</v>
       </c>
       <c r="C259" t="s">
-        <v>689</v>
+        <v>605</v>
       </c>
       <c r="D259" t="s">
         <v>850</v>
       </c>
       <c r="E259" t="s">
-        <v>1234</v>
+        <v>1340</v>
       </c>
       <c r="F259" t="s">
-        <v>1596</v>
+        <v>1634</v>
       </c>
       <c r="G259" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="H259" t="s">
         <v>1711</v>
@@ -20138,19 +20135,19 @@
         <v>1714</v>
       </c>
       <c r="J259" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="K259" t="s">
-        <v>1723</v>
+        <v>1734</v>
       </c>
       <c r="L259" t="s">
-        <v>1911</v>
+        <v>1782</v>
       </c>
       <c r="M259" t="s">
-        <v>2087</v>
+        <v>2133</v>
       </c>
       <c r="N259" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="O259" s="2" t="s">
         <v>2419</v>
@@ -20167,37 +20164,37 @@
         <v>690</v>
       </c>
       <c r="D260" t="s">
-        <v>1036</v>
+        <v>850</v>
       </c>
       <c r="E260" t="s">
-        <v>1341</v>
+        <v>1234</v>
       </c>
       <c r="F260" t="s">
-        <v>1635</v>
+        <v>1596</v>
       </c>
       <c r="G260" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="H260" t="s">
         <v>1711</v>
       </c>
       <c r="I260" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J260" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="K260" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="L260" t="s">
         <v>1912</v>
       </c>
       <c r="M260" t="s">
-        <v>2097</v>
+        <v>2087</v>
       </c>
       <c r="N260" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="O260" s="2" t="s">
         <v>2420</v>
@@ -20217,31 +20214,31 @@
         <v>1037</v>
       </c>
       <c r="E261" t="s">
-        <v>1331</v>
+        <v>1341</v>
       </c>
       <c r="F261" t="s">
-        <v>1520</v>
+        <v>1635</v>
       </c>
       <c r="G261" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="H261" t="s">
         <v>1711</v>
       </c>
       <c r="I261" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="J261" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="K261" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="L261" t="s">
-        <v>1896</v>
+        <v>1913</v>
       </c>
       <c r="M261" t="s">
-        <v>2091</v>
+        <v>2097</v>
       </c>
       <c r="N261" t="s">
         <v>2157</v>
@@ -20258,34 +20255,40 @@
         <v>274</v>
       </c>
       <c r="C262" t="s">
-        <v>633</v>
+        <v>692</v>
       </c>
       <c r="D262" t="s">
         <v>1038</v>
       </c>
       <c r="E262" t="s">
-        <v>1245</v>
+        <v>1331</v>
       </c>
       <c r="F262" t="s">
-        <v>1636</v>
+        <v>1520</v>
       </c>
       <c r="G262" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="H262" t="s">
         <v>1711</v>
       </c>
       <c r="I262" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J262" t="s">
         <v>1717</v>
       </c>
+      <c r="K262" t="s">
+        <v>1733</v>
+      </c>
       <c r="L262" t="s">
-        <v>1913</v>
+        <v>1896</v>
       </c>
       <c r="M262" t="s">
-        <v>2106</v>
+        <v>2091</v>
+      </c>
+      <c r="N262" t="s">
+        <v>2157</v>
       </c>
       <c r="O262" s="2" t="s">
         <v>2422</v>
@@ -20299,16 +20302,16 @@
         <v>275</v>
       </c>
       <c r="C263" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="D263" t="s">
         <v>1039</v>
       </c>
       <c r="E263" t="s">
-        <v>1317</v>
+        <v>1245</v>
       </c>
       <c r="F263" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="G263" t="s">
         <v>1697</v>
@@ -20317,7 +20320,7 @@
         <v>1711</v>
       </c>
       <c r="I263" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J263" t="s">
         <v>1717</v>
@@ -20326,10 +20329,7 @@
         <v>1914</v>
       </c>
       <c r="M263" t="s">
-        <v>2095</v>
-      </c>
-      <c r="N263" t="s">
-        <v>2156</v>
+        <v>2106</v>
       </c>
       <c r="O263" s="2" t="s">
         <v>2423</v>
@@ -20343,37 +20343,37 @@
         <v>276</v>
       </c>
       <c r="C264" t="s">
-        <v>692</v>
+        <v>652</v>
       </c>
       <c r="D264" t="s">
         <v>1040</v>
       </c>
       <c r="E264" t="s">
-        <v>1302</v>
+        <v>1316</v>
       </c>
       <c r="F264" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="G264" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="H264" t="s">
         <v>1711</v>
       </c>
       <c r="I264" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="J264" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="L264" t="s">
         <v>1915</v>
       </c>
       <c r="M264" t="s">
-        <v>2087</v>
+        <v>2095</v>
       </c>
       <c r="N264" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="O264" s="2" t="s">
         <v>2424</v>
@@ -20393,31 +20393,31 @@
         <v>1041</v>
       </c>
       <c r="E265" t="s">
-        <v>1342</v>
+        <v>1302</v>
       </c>
       <c r="F265" t="s">
-        <v>1502</v>
+        <v>1638</v>
       </c>
       <c r="G265" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="H265" t="s">
         <v>1711</v>
       </c>
       <c r="I265" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J265" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="L265" t="s">
         <v>1916</v>
       </c>
       <c r="M265" t="s">
-        <v>2120</v>
+        <v>2087</v>
       </c>
       <c r="N265" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="O265" s="2" t="s">
         <v>2425</v>
@@ -20434,31 +20434,31 @@
         <v>694</v>
       </c>
       <c r="D266" t="s">
-        <v>850</v>
+        <v>1042</v>
       </c>
       <c r="E266" t="s">
-        <v>1328</v>
+        <v>1342</v>
       </c>
       <c r="F266" t="s">
-        <v>1639</v>
+        <v>1502</v>
       </c>
       <c r="G266" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H266" t="s">
         <v>1711</v>
       </c>
       <c r="I266" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J266" t="s">
         <v>1717</v>
       </c>
       <c r="L266" t="s">
-        <v>1908</v>
+        <v>1917</v>
       </c>
       <c r="M266" t="s">
-        <v>2089</v>
+        <v>2120</v>
       </c>
       <c r="N266" t="s">
         <v>2158</v>
@@ -20478,34 +20478,34 @@
         <v>695</v>
       </c>
       <c r="D267" t="s">
-        <v>1042</v>
+        <v>850</v>
       </c>
       <c r="E267" t="s">
-        <v>1277</v>
+        <v>1328</v>
       </c>
       <c r="F267" t="s">
-        <v>1529</v>
+        <v>1639</v>
       </c>
       <c r="G267" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="H267" t="s">
         <v>1711</v>
       </c>
       <c r="I267" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J267" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="L267" t="s">
-        <v>1782</v>
+        <v>1909</v>
       </c>
       <c r="M267" t="s">
-        <v>2108</v>
+        <v>2089</v>
       </c>
       <c r="N267" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="O267" s="2" t="s">
         <v>2427</v>
@@ -20525,10 +20525,10 @@
         <v>1043</v>
       </c>
       <c r="E268" t="s">
-        <v>1343</v>
+        <v>1277</v>
       </c>
       <c r="F268" t="s">
-        <v>1575</v>
+        <v>1529</v>
       </c>
       <c r="G268" t="s">
         <v>1697</v>
@@ -20540,19 +20540,16 @@
         <v>1713</v>
       </c>
       <c r="J268" t="s">
-        <v>1718</v>
-      </c>
-      <c r="K268" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="L268" t="s">
-        <v>1912</v>
+        <v>1782</v>
       </c>
       <c r="M268" t="s">
-        <v>2097</v>
+        <v>2108</v>
       </c>
       <c r="N268" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="O268" s="2" t="s">
         <v>2428</v>
@@ -20566,16 +20563,16 @@
         <v>281</v>
       </c>
       <c r="C269" t="s">
-        <v>655</v>
+        <v>697</v>
       </c>
       <c r="D269" t="s">
-        <v>850</v>
+        <v>1044</v>
       </c>
       <c r="E269" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F269" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="G269" t="s">
         <v>1697</v>
@@ -20587,16 +20584,19 @@
         <v>1713</v>
       </c>
       <c r="J269" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="K269" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="L269" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="M269" t="s">
-        <v>2100</v>
+        <v>2097</v>
+      </c>
+      <c r="N269" t="s">
+        <v>2157</v>
       </c>
       <c r="O269" s="2" t="s">
         <v>2429</v>
@@ -20610,28 +20610,28 @@
         <v>282</v>
       </c>
       <c r="C270" t="s">
-        <v>601</v>
+        <v>655</v>
       </c>
       <c r="D270" t="s">
-        <v>1010</v>
+        <v>850</v>
       </c>
       <c r="E270" t="s">
-        <v>1319</v>
+        <v>1344</v>
       </c>
       <c r="F270" t="s">
-        <v>1640</v>
+        <v>1583</v>
       </c>
       <c r="G270" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="H270" t="s">
         <v>1711</v>
       </c>
       <c r="I270" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J270" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="K270" t="s">
         <v>1723</v>
@@ -20640,10 +20640,7 @@
         <v>1918</v>
       </c>
       <c r="M270" t="s">
-        <v>2097</v>
-      </c>
-      <c r="N270" t="s">
-        <v>2158</v>
+        <v>2100</v>
       </c>
       <c r="O270" s="2" t="s">
         <v>2430</v>
@@ -20657,19 +20654,19 @@
         <v>283</v>
       </c>
       <c r="C271" t="s">
-        <v>697</v>
+        <v>601</v>
       </c>
       <c r="D271" t="s">
-        <v>1044</v>
+        <v>1010</v>
       </c>
       <c r="E271" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="F271" t="s">
-        <v>1542</v>
+        <v>1640</v>
       </c>
       <c r="G271" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="H271" t="s">
         <v>1711</v>
@@ -20680,14 +20677,17 @@
       <c r="J271" t="s">
         <v>1717</v>
       </c>
+      <c r="K271" t="s">
+        <v>1723</v>
+      </c>
       <c r="L271" t="s">
         <v>1919</v>
       </c>
       <c r="M271" t="s">
-        <v>2120</v>
+        <v>2097</v>
       </c>
       <c r="N271" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="O271" s="2" t="s">
         <v>2431</v>
@@ -20707,31 +20707,31 @@
         <v>1045</v>
       </c>
       <c r="E272" t="s">
-        <v>1284</v>
+        <v>1330</v>
       </c>
       <c r="F272" t="s">
-        <v>1641</v>
+        <v>1542</v>
       </c>
       <c r="G272" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="H272" t="s">
         <v>1711</v>
       </c>
       <c r="I272" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J272" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="L272" t="s">
         <v>1920</v>
       </c>
       <c r="M272" t="s">
-        <v>2087</v>
+        <v>2120</v>
       </c>
       <c r="N272" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="O272" s="2" t="s">
         <v>2432</v>
@@ -20751,31 +20751,31 @@
         <v>1046</v>
       </c>
       <c r="E273" t="s">
-        <v>1345</v>
+        <v>1284</v>
       </c>
       <c r="F273" t="s">
-        <v>1529</v>
+        <v>1641</v>
       </c>
       <c r="G273" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="H273" t="s">
         <v>1711</v>
       </c>
       <c r="I273" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="J273" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="L273" t="s">
         <v>1921</v>
       </c>
       <c r="M273" t="s">
-        <v>2115</v>
+        <v>2087</v>
       </c>
       <c r="N273" t="s">
-        <v>2154</v>
+        <v>2159</v>
       </c>
       <c r="O273" s="2" t="s">
         <v>2433</v>
@@ -20795,31 +20795,31 @@
         <v>1047</v>
       </c>
       <c r="E274" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F274" t="s">
-        <v>1642</v>
+        <v>1529</v>
       </c>
       <c r="G274" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="H274" t="s">
         <v>1711</v>
       </c>
       <c r="I274" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J274" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="L274" t="s">
         <v>1922</v>
       </c>
       <c r="M274" t="s">
-        <v>2092</v>
+        <v>2115</v>
       </c>
       <c r="N274" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="O274" s="2" t="s">
         <v>2434</v>
@@ -20833,16 +20833,16 @@
         <v>287</v>
       </c>
       <c r="C275" t="s">
-        <v>623</v>
+        <v>701</v>
       </c>
       <c r="D275" t="s">
         <v>1048</v>
       </c>
       <c r="E275" t="s">
-        <v>1243</v>
+        <v>1346</v>
       </c>
       <c r="F275" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="G275" t="s">
         <v>1700</v>
@@ -20851,22 +20851,19 @@
         <v>1711</v>
       </c>
       <c r="I275" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J275" t="s">
-        <v>1717</v>
-      </c>
-      <c r="K275" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="L275" t="s">
         <v>1923</v>
       </c>
       <c r="M275" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="N275" t="s">
-        <v>2155</v>
+        <v>2160</v>
       </c>
       <c r="O275" s="2" t="s">
         <v>2435</v>
@@ -20880,40 +20877,40 @@
         <v>288</v>
       </c>
       <c r="C276" t="s">
-        <v>598</v>
+        <v>683</v>
       </c>
       <c r="D276" t="s">
-        <v>1021</v>
+        <v>1049</v>
       </c>
       <c r="E276" t="s">
-        <v>1328</v>
+        <v>1243</v>
       </c>
       <c r="F276" t="s">
-        <v>1627</v>
+        <v>1638</v>
       </c>
       <c r="G276" t="s">
-        <v>1695</v>
+        <v>1700</v>
       </c>
       <c r="H276" t="s">
         <v>1711</v>
       </c>
       <c r="I276" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="J276" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="K276" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="L276" t="s">
-        <v>1832</v>
+        <v>1924</v>
       </c>
       <c r="M276" t="s">
-        <v>2116</v>
+        <v>2097</v>
       </c>
       <c r="N276" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="O276" s="2" t="s">
         <v>2436</v>
@@ -20927,40 +20924,40 @@
         <v>289</v>
       </c>
       <c r="C277" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="D277" t="s">
-        <v>969</v>
+        <v>1021</v>
       </c>
       <c r="E277" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
       <c r="F277" t="s">
-        <v>1643</v>
+        <v>1627</v>
       </c>
       <c r="G277" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="H277" t="s">
         <v>1711</v>
       </c>
       <c r="I277" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="J277" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="K277" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="L277" t="s">
-        <v>1924</v>
+        <v>1832</v>
       </c>
       <c r="M277" t="s">
-        <v>2134</v>
+        <v>2116</v>
       </c>
       <c r="N277" t="s">
-        <v>2156</v>
+        <v>2161</v>
       </c>
       <c r="O277" s="2" t="s">
         <v>2437</v>
@@ -20974,19 +20971,19 @@
         <v>290</v>
       </c>
       <c r="C278" t="s">
-        <v>607</v>
+        <v>536</v>
       </c>
       <c r="D278" t="s">
-        <v>1049</v>
+        <v>969</v>
       </c>
       <c r="E278" t="s">
-        <v>1302</v>
+        <v>1347</v>
       </c>
       <c r="F278" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="G278" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="H278" t="s">
         <v>1711</v>
@@ -20995,19 +20992,19 @@
         <v>1714</v>
       </c>
       <c r="J278" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="K278" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="L278" t="s">
-        <v>1833</v>
+        <v>1925</v>
       </c>
       <c r="M278" t="s">
-        <v>2091</v>
+        <v>2134</v>
       </c>
       <c r="N278" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="O278" s="2" t="s">
         <v>2438</v>
@@ -21021,37 +21018,40 @@
         <v>291</v>
       </c>
       <c r="C279" t="s">
-        <v>536</v>
+        <v>612</v>
       </c>
       <c r="D279" t="s">
-        <v>969</v>
+        <v>1050</v>
       </c>
       <c r="E279" t="s">
-        <v>1348</v>
+        <v>1302</v>
       </c>
       <c r="F279" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="G279" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="H279" t="s">
         <v>1711</v>
       </c>
       <c r="I279" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="J279" t="s">
-        <v>1719</v>
+        <v>1717</v>
+      </c>
+      <c r="K279" t="s">
+        <v>1724</v>
       </c>
       <c r="L279" t="s">
-        <v>1782</v>
+        <v>1833</v>
       </c>
       <c r="M279" t="s">
-        <v>2135</v>
+        <v>2091</v>
       </c>
       <c r="N279" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="O279" s="2" t="s">
         <v>2439</v>
@@ -21065,19 +21065,19 @@
         <v>292</v>
       </c>
       <c r="C280" t="s">
-        <v>607</v>
+        <v>536</v>
       </c>
       <c r="D280" t="s">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="E280" t="s">
-        <v>1316</v>
+        <v>1348</v>
       </c>
       <c r="F280" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="G280" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="H280" t="s">
         <v>1711</v>
@@ -21086,19 +21086,16 @@
         <v>1712</v>
       </c>
       <c r="J280" t="s">
-        <v>1717</v>
-      </c>
-      <c r="K280" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="L280" t="s">
-        <v>1925</v>
+        <v>1782</v>
       </c>
       <c r="M280" t="s">
-        <v>2118</v>
+        <v>2135</v>
       </c>
       <c r="N280" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="O280" s="2" t="s">
         <v>2440</v>
@@ -21112,40 +21109,40 @@
         <v>293</v>
       </c>
       <c r="C281" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="D281" t="s">
-        <v>999</v>
+        <v>954</v>
       </c>
       <c r="E281" t="s">
-        <v>1245</v>
+        <v>1319</v>
       </c>
       <c r="F281" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G281" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="H281" t="s">
         <v>1711</v>
       </c>
       <c r="I281" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="J281" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="K281" t="s">
         <v>1724</v>
       </c>
       <c r="L281" t="s">
-        <v>1832</v>
+        <v>1926</v>
       </c>
       <c r="M281" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="N281" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
       <c r="O281" s="2" t="s">
         <v>2441</v>
@@ -21159,40 +21156,40 @@
         <v>294</v>
       </c>
       <c r="C282" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="D282" t="s">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="E282" t="s">
-        <v>1340</v>
+        <v>1245</v>
       </c>
       <c r="F282" t="s">
-        <v>1502</v>
+        <v>1646</v>
       </c>
       <c r="G282" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H282" t="s">
         <v>1711</v>
       </c>
       <c r="I282" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="J282" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="K282" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="L282" t="s">
-        <v>1854</v>
+        <v>1832</v>
       </c>
       <c r="M282" t="s">
-        <v>2087</v>
+        <v>2116</v>
       </c>
       <c r="N282" t="s">
-        <v>2156</v>
+        <v>2161</v>
       </c>
       <c r="O282" s="2" t="s">
         <v>2442</v>
@@ -21206,40 +21203,40 @@
         <v>295</v>
       </c>
       <c r="C283" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="D283" t="s">
-        <v>949</v>
+        <v>1051</v>
       </c>
       <c r="E283" t="s">
-        <v>1314</v>
+        <v>1340</v>
       </c>
       <c r="F283" t="s">
-        <v>1552</v>
+        <v>1502</v>
       </c>
       <c r="G283" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="H283" t="s">
         <v>1711</v>
       </c>
       <c r="I283" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J283" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="K283" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="L283" t="s">
-        <v>1926</v>
+        <v>1854</v>
       </c>
       <c r="M283" t="s">
-        <v>2111</v>
+        <v>2087</v>
       </c>
       <c r="N283" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="O283" s="2" t="s">
         <v>2443</v>
@@ -21253,37 +21250,40 @@
         <v>296</v>
       </c>
       <c r="C284" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="D284" t="s">
-        <v>1051</v>
+        <v>954</v>
       </c>
       <c r="E284" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
       <c r="F284" t="s">
-        <v>1530</v>
+        <v>1552</v>
       </c>
       <c r="G284" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="H284" t="s">
         <v>1711</v>
       </c>
       <c r="I284" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J284" t="s">
-        <v>1717</v>
+        <v>1719</v>
+      </c>
+      <c r="K284" t="s">
+        <v>1736</v>
       </c>
       <c r="L284" t="s">
         <v>1927</v>
       </c>
       <c r="M284" t="s">
-        <v>2102</v>
+        <v>2111</v>
       </c>
       <c r="N284" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="O284" s="2" t="s">
         <v>2444</v>
@@ -21303,13 +21303,13 @@
         <v>1052</v>
       </c>
       <c r="E285" t="s">
-        <v>1349</v>
+        <v>1302</v>
       </c>
       <c r="F285" t="s">
-        <v>1618</v>
+        <v>1530</v>
       </c>
       <c r="G285" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="H285" t="s">
         <v>1711</v>
@@ -21320,17 +21320,14 @@
       <c r="J285" t="s">
         <v>1717</v>
       </c>
-      <c r="K285" t="s">
-        <v>1735</v>
-      </c>
       <c r="L285" t="s">
         <v>1928</v>
       </c>
       <c r="M285" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
       <c r="N285" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="O285" s="2" t="s">
         <v>2445</v>
@@ -21347,13 +21344,13 @@
         <v>703</v>
       </c>
       <c r="D286" t="s">
-        <v>944</v>
+        <v>1053</v>
       </c>
       <c r="E286" t="s">
-        <v>1321</v>
+        <v>1349</v>
       </c>
       <c r="F286" t="s">
-        <v>1566</v>
+        <v>1619</v>
       </c>
       <c r="G286" t="s">
         <v>1697</v>
@@ -21367,14 +21364,17 @@
       <c r="J286" t="s">
         <v>1717</v>
       </c>
+      <c r="K286" t="s">
+        <v>1735</v>
+      </c>
       <c r="L286" t="s">
-        <v>1826</v>
+        <v>1929</v>
       </c>
       <c r="M286" t="s">
-        <v>2090</v>
+        <v>2098</v>
       </c>
       <c r="N286" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="O286" s="2" t="s">
         <v>2446</v>
@@ -21388,16 +21388,16 @@
         <v>299</v>
       </c>
       <c r="C287" t="s">
-        <v>607</v>
+        <v>704</v>
       </c>
       <c r="D287" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="E287" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="F287" t="s">
-        <v>1551</v>
+        <v>1566</v>
       </c>
       <c r="G287" t="s">
         <v>1697</v>
@@ -21406,19 +21406,16 @@
         <v>1711</v>
       </c>
       <c r="I287" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="J287" t="s">
         <v>1717</v>
       </c>
-      <c r="K287" t="s">
-        <v>1723</v>
-      </c>
       <c r="L287" t="s">
-        <v>1929</v>
+        <v>1826</v>
       </c>
       <c r="M287" t="s">
-        <v>2136</v>
+        <v>2090</v>
       </c>
       <c r="N287" t="s">
         <v>2159</v>
@@ -21435,16 +21432,16 @@
         <v>300</v>
       </c>
       <c r="C288" t="s">
-        <v>570</v>
+        <v>612</v>
       </c>
       <c r="D288" t="s">
-        <v>1053</v>
+        <v>954</v>
       </c>
       <c r="E288" t="s">
-        <v>1238</v>
+        <v>1319</v>
       </c>
       <c r="F288" t="s">
-        <v>1647</v>
+        <v>1551</v>
       </c>
       <c r="G288" t="s">
         <v>1697</v>
@@ -21453,22 +21450,22 @@
         <v>1711</v>
       </c>
       <c r="I288" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="J288" t="s">
         <v>1717</v>
       </c>
       <c r="K288" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="L288" t="s">
-        <v>1899</v>
+        <v>1930</v>
       </c>
       <c r="M288" t="s">
-        <v>2087</v>
+        <v>2136</v>
       </c>
       <c r="N288" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="O288" s="2" t="s">
         <v>2448</v>
@@ -21482,37 +21479,40 @@
         <v>301</v>
       </c>
       <c r="C289" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="D289" t="s">
-        <v>850</v>
+        <v>1054</v>
       </c>
       <c r="E289" t="s">
-        <v>1350</v>
+        <v>1238</v>
       </c>
       <c r="F289" t="s">
-        <v>1636</v>
+        <v>1647</v>
       </c>
       <c r="G289" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="H289" t="s">
         <v>1711</v>
       </c>
       <c r="I289" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J289" t="s">
         <v>1717</v>
       </c>
+      <c r="K289" t="s">
+        <v>1727</v>
+      </c>
       <c r="L289" t="s">
-        <v>1930</v>
+        <v>1899</v>
       </c>
       <c r="M289" t="s">
-        <v>2096</v>
+        <v>2087</v>
       </c>
       <c r="N289" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="O289" s="2" t="s">
         <v>2449</v>
@@ -21526,19 +21526,19 @@
         <v>302</v>
       </c>
       <c r="C290" t="s">
-        <v>704</v>
+        <v>600</v>
       </c>
       <c r="D290" t="s">
         <v>850</v>
       </c>
       <c r="E290" t="s">
-        <v>1315</v>
+        <v>1350</v>
       </c>
       <c r="F290" t="s">
-        <v>1583</v>
+        <v>1636</v>
       </c>
       <c r="G290" t="s">
-        <v>1696</v>
+        <v>1705</v>
       </c>
       <c r="H290" t="s">
         <v>1711</v>
@@ -21549,17 +21549,14 @@
       <c r="J290" t="s">
         <v>1717</v>
       </c>
-      <c r="K290" t="s">
-        <v>1728</v>
-      </c>
       <c r="L290" t="s">
-        <v>1888</v>
+        <v>1931</v>
       </c>
       <c r="M290" t="s">
-        <v>2091</v>
+        <v>2096</v>
       </c>
       <c r="N290" t="s">
-        <v>2154</v>
+        <v>2161</v>
       </c>
       <c r="O290" s="2" t="s">
         <v>2450</v>
@@ -21576,13 +21573,13 @@
         <v>705</v>
       </c>
       <c r="D291" t="s">
-        <v>1054</v>
+        <v>850</v>
       </c>
       <c r="E291" t="s">
-        <v>1234</v>
+        <v>1315</v>
       </c>
       <c r="F291" t="s">
-        <v>1503</v>
+        <v>1583</v>
       </c>
       <c r="G291" t="s">
         <v>1696</v>
@@ -21594,19 +21591,19 @@
         <v>1714</v>
       </c>
       <c r="J291" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="K291" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="L291" t="s">
-        <v>1931</v>
+        <v>1888</v>
       </c>
       <c r="M291" t="s">
-        <v>2119</v>
+        <v>2091</v>
       </c>
       <c r="N291" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
       <c r="O291" s="2" t="s">
         <v>2451</v>
@@ -21623,16 +21620,16 @@
         <v>706</v>
       </c>
       <c r="D292" t="s">
-        <v>850</v>
+        <v>1055</v>
       </c>
       <c r="E292" t="s">
-        <v>1351</v>
+        <v>1234</v>
       </c>
       <c r="F292" t="s">
-        <v>1648</v>
+        <v>1503</v>
       </c>
       <c r="G292" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H292" t="s">
         <v>1711</v>
@@ -21641,19 +21638,19 @@
         <v>1714</v>
       </c>
       <c r="J292" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="K292" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="L292" t="s">
-        <v>1798</v>
+        <v>1932</v>
       </c>
       <c r="M292" t="s">
-        <v>2097</v>
+        <v>2118</v>
       </c>
       <c r="N292" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="O292" s="2" t="s">
         <v>2452</v>
@@ -21667,16 +21664,16 @@
         <v>305</v>
       </c>
       <c r="C293" t="s">
-        <v>652</v>
+        <v>707</v>
       </c>
       <c r="D293" t="s">
-        <v>1055</v>
+        <v>850</v>
       </c>
       <c r="E293" t="s">
-        <v>1271</v>
+        <v>1351</v>
       </c>
       <c r="F293" t="s">
-        <v>1542</v>
+        <v>1648</v>
       </c>
       <c r="G293" t="s">
         <v>1697</v>
@@ -21685,19 +21682,22 @@
         <v>1711</v>
       </c>
       <c r="I293" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J293" t="s">
-        <v>1717</v>
+        <v>1718</v>
+      </c>
+      <c r="K293" t="s">
+        <v>1735</v>
       </c>
       <c r="L293" t="s">
-        <v>1932</v>
+        <v>1798</v>
       </c>
       <c r="M293" t="s">
-        <v>2126</v>
+        <v>2097</v>
       </c>
       <c r="N293" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="O293" s="2" t="s">
         <v>2453</v>
@@ -21711,16 +21711,16 @@
         <v>306</v>
       </c>
       <c r="C294" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="D294" t="s">
         <v>1056</v>
       </c>
       <c r="E294" t="s">
-        <v>1316</v>
+        <v>1271</v>
       </c>
       <c r="F294" t="s">
-        <v>1649</v>
+        <v>1542</v>
       </c>
       <c r="G294" t="s">
         <v>1697</v>
@@ -21729,22 +21729,19 @@
         <v>1711</v>
       </c>
       <c r="I294" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="J294" t="s">
         <v>1717</v>
       </c>
-      <c r="K294" t="s">
-        <v>1724</v>
-      </c>
       <c r="L294" t="s">
-        <v>1839</v>
+        <v>1933</v>
       </c>
       <c r="M294" t="s">
-        <v>2118</v>
+        <v>2127</v>
       </c>
       <c r="N294" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="O294" s="2" t="s">
         <v>2454</v>
@@ -21758,16 +21755,16 @@
         <v>307</v>
       </c>
       <c r="C295" t="s">
-        <v>707</v>
+        <v>612</v>
       </c>
       <c r="D295" t="s">
-        <v>956</v>
+        <v>1057</v>
       </c>
       <c r="E295" t="s">
-        <v>1309</v>
+        <v>1319</v>
       </c>
       <c r="F295" t="s">
-        <v>1522</v>
+        <v>1649</v>
       </c>
       <c r="G295" t="s">
         <v>1697</v>
@@ -21779,13 +21776,16 @@
         <v>1712</v>
       </c>
       <c r="J295" t="s">
-        <v>1720</v>
+        <v>1717</v>
+      </c>
+      <c r="K295" t="s">
+        <v>1724</v>
       </c>
       <c r="L295" t="s">
-        <v>1933</v>
+        <v>1843</v>
       </c>
       <c r="M295" t="s">
-        <v>2090</v>
+        <v>2119</v>
       </c>
       <c r="N295" t="s">
         <v>2154</v>
@@ -21802,37 +21802,37 @@
         <v>308</v>
       </c>
       <c r="C296" t="s">
-        <v>577</v>
+        <v>708</v>
       </c>
       <c r="D296" t="s">
-        <v>1057</v>
+        <v>956</v>
       </c>
       <c r="E296" t="s">
-        <v>1352</v>
+        <v>1309</v>
       </c>
       <c r="F296" t="s">
-        <v>1650</v>
+        <v>1522</v>
       </c>
       <c r="G296" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="H296" t="s">
         <v>1711</v>
       </c>
       <c r="I296" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="J296" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="L296" t="s">
         <v>1934</v>
       </c>
       <c r="M296" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="N296" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="O296" s="2" t="s">
         <v>2456</v>
@@ -21846,40 +21846,37 @@
         <v>309</v>
       </c>
       <c r="C297" t="s">
-        <v>708</v>
+        <v>577</v>
       </c>
       <c r="D297" t="s">
         <v>1058</v>
       </c>
       <c r="E297" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F297" t="s">
-        <v>1526</v>
+        <v>1650</v>
       </c>
       <c r="G297" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H297" t="s">
         <v>1711</v>
       </c>
       <c r="I297" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J297" t="s">
-        <v>1718</v>
-      </c>
-      <c r="K297" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
       <c r="L297" t="s">
         <v>1935</v>
       </c>
       <c r="M297" t="s">
-        <v>2095</v>
+        <v>2088</v>
       </c>
       <c r="N297" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="O297" s="2" t="s">
         <v>2457</v>
@@ -21899,31 +21896,34 @@
         <v>1059</v>
       </c>
       <c r="E298" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F298" t="s">
-        <v>1651</v>
+        <v>1526</v>
       </c>
       <c r="G298" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="H298" t="s">
         <v>1711</v>
       </c>
       <c r="I298" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="J298" t="s">
-        <v>1717</v>
+        <v>1718</v>
+      </c>
+      <c r="K298" t="s">
+        <v>1730</v>
       </c>
       <c r="L298" t="s">
         <v>1936</v>
       </c>
       <c r="M298" t="s">
-        <v>2087</v>
+        <v>2095</v>
       </c>
       <c r="N298" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="O298" s="2" t="s">
         <v>2458</v>
@@ -21937,25 +21937,25 @@
         <v>311</v>
       </c>
       <c r="C299" t="s">
-        <v>536</v>
+        <v>710</v>
       </c>
       <c r="D299" t="s">
-        <v>969</v>
+        <v>1060</v>
       </c>
       <c r="E299" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F299" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G299" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="H299" t="s">
         <v>1711</v>
       </c>
       <c r="I299" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J299" t="s">
         <v>1717</v>
@@ -21964,10 +21964,10 @@
         <v>1937</v>
       </c>
       <c r="M299" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="N299" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="O299" s="2" t="s">
         <v>2459</v>
@@ -21981,25 +21981,25 @@
         <v>312</v>
       </c>
       <c r="C300" t="s">
-        <v>710</v>
+        <v>536</v>
       </c>
       <c r="D300" t="s">
-        <v>1060</v>
+        <v>969</v>
       </c>
       <c r="E300" t="s">
-        <v>1315</v>
+        <v>1355</v>
       </c>
       <c r="F300" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="G300" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="H300" t="s">
         <v>1711</v>
       </c>
       <c r="I300" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J300" t="s">
         <v>1717</v>
@@ -22011,7 +22011,7 @@
         <v>2091</v>
       </c>
       <c r="N300" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="O300" s="2" t="s">
         <v>2460</v>
@@ -22028,22 +22028,22 @@
         <v>711</v>
       </c>
       <c r="D301" t="s">
-        <v>872</v>
+        <v>1061</v>
       </c>
       <c r="E301" t="s">
-        <v>1356</v>
+        <v>1315</v>
       </c>
       <c r="F301" t="s">
-        <v>1500</v>
+        <v>1653</v>
       </c>
       <c r="G301" t="s">
-        <v>1696</v>
+        <v>1702</v>
       </c>
       <c r="H301" t="s">
         <v>1711</v>
       </c>
       <c r="I301" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="J301" t="s">
         <v>1717</v>
@@ -22055,7 +22055,7 @@
         <v>2091</v>
       </c>
       <c r="N301" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="O301" s="2" t="s">
         <v>2461</v>
@@ -22072,16 +22072,16 @@
         <v>712</v>
       </c>
       <c r="D302" t="s">
-        <v>1061</v>
+        <v>872</v>
       </c>
       <c r="E302" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F302" t="s">
-        <v>1654</v>
+        <v>1500</v>
       </c>
       <c r="G302" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
       <c r="H302" t="s">
         <v>1711</v>
@@ -22096,10 +22096,10 @@
         <v>1940</v>
       </c>
       <c r="M302" t="s">
-        <v>2137</v>
+        <v>2091</v>
       </c>
       <c r="N302" t="s">
-        <v>2155</v>
+        <v>2160</v>
       </c>
       <c r="O302" s="2" t="s">
         <v>2462</v>
@@ -22116,34 +22116,34 @@
         <v>713</v>
       </c>
       <c r="D303" t="s">
-        <v>1034</v>
+        <v>1062</v>
       </c>
       <c r="E303" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F303" t="s">
-        <v>1522</v>
+        <v>1654</v>
       </c>
       <c r="G303" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="H303" t="s">
         <v>1711</v>
       </c>
       <c r="I303" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J303" t="s">
         <v>1717</v>
       </c>
       <c r="L303" t="s">
-        <v>1910</v>
+        <v>1941</v>
       </c>
       <c r="M303" t="s">
-        <v>2087</v>
+        <v>2137</v>
       </c>
       <c r="N303" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="O303" s="2" t="s">
         <v>2463</v>
@@ -22160,34 +22160,34 @@
         <v>714</v>
       </c>
       <c r="D304" t="s">
-        <v>850</v>
+        <v>1035</v>
       </c>
       <c r="E304" t="s">
-        <v>1245</v>
+        <v>1358</v>
       </c>
       <c r="F304" t="s">
-        <v>1595</v>
+        <v>1522</v>
       </c>
       <c r="G304" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="H304" t="s">
         <v>1711</v>
       </c>
       <c r="I304" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="J304" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="L304" t="s">
-        <v>1941</v>
+        <v>1911</v>
       </c>
       <c r="M304" t="s">
-        <v>2138</v>
+        <v>2087</v>
       </c>
       <c r="N304" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="O304" s="2" t="s">
         <v>2464</v>
@@ -22204,34 +22204,34 @@
         <v>715</v>
       </c>
       <c r="D305" t="s">
-        <v>1062</v>
+        <v>850</v>
       </c>
       <c r="E305" t="s">
-        <v>1359</v>
+        <v>1245</v>
       </c>
       <c r="F305" t="s">
-        <v>1638</v>
+        <v>1595</v>
       </c>
       <c r="G305" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="H305" t="s">
         <v>1711</v>
       </c>
       <c r="I305" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J305" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="L305" t="s">
         <v>1942</v>
       </c>
       <c r="M305" t="s">
-        <v>2123</v>
+        <v>2138</v>
       </c>
       <c r="N305" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="O305" s="2" t="s">
         <v>2465</v>
@@ -22251,31 +22251,31 @@
         <v>1063</v>
       </c>
       <c r="E306" t="s">
-        <v>1238</v>
+        <v>1359</v>
       </c>
       <c r="F306" t="s">
-        <v>1526</v>
+        <v>1638</v>
       </c>
       <c r="G306" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H306" t="s">
         <v>1711</v>
       </c>
       <c r="I306" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="J306" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="L306" t="s">
         <v>1943</v>
       </c>
       <c r="M306" t="s">
-        <v>2096</v>
+        <v>2123</v>
       </c>
       <c r="N306" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="O306" s="2" t="s">
         <v>2466</v>
@@ -22289,40 +22289,37 @@
         <v>319</v>
       </c>
       <c r="C307" t="s">
-        <v>533</v>
+        <v>717</v>
       </c>
       <c r="D307" t="s">
-        <v>850</v>
+        <v>1064</v>
       </c>
       <c r="E307" t="s">
-        <v>1360</v>
+        <v>1238</v>
       </c>
       <c r="F307" t="s">
-        <v>1502</v>
+        <v>1526</v>
       </c>
       <c r="G307" t="s">
-        <v>1695</v>
+        <v>1700</v>
       </c>
       <c r="H307" t="s">
         <v>1711</v>
       </c>
       <c r="I307" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J307" t="s">
-        <v>1717</v>
-      </c>
-      <c r="K307" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="L307" t="s">
-        <v>1912</v>
+        <v>1944</v>
       </c>
       <c r="M307" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="N307" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="O307" s="2" t="s">
         <v>2467</v>
@@ -22336,37 +22333,37 @@
         <v>320</v>
       </c>
       <c r="C308" t="s">
-        <v>717</v>
+        <v>533</v>
       </c>
       <c r="D308" t="s">
-        <v>1064</v>
+        <v>850</v>
       </c>
       <c r="E308" t="s">
-        <v>1247</v>
+        <v>1360</v>
       </c>
       <c r="F308" t="s">
-        <v>1655</v>
+        <v>1502</v>
       </c>
       <c r="G308" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="H308" t="s">
         <v>1711</v>
       </c>
       <c r="I308" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J308" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="K308" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="L308" t="s">
-        <v>1944</v>
+        <v>1913</v>
       </c>
       <c r="M308" t="s">
-        <v>2139</v>
+        <v>2097</v>
       </c>
       <c r="N308" t="s">
         <v>2157</v>
@@ -22389,10 +22386,10 @@
         <v>1065</v>
       </c>
       <c r="E309" t="s">
-        <v>1361</v>
+        <v>1247</v>
       </c>
       <c r="F309" t="s">
-        <v>1502</v>
+        <v>1655</v>
       </c>
       <c r="G309" t="s">
         <v>1697</v>
@@ -22401,22 +22398,22 @@
         <v>1711</v>
       </c>
       <c r="I309" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J309" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="K309" t="s">
-        <v>1723</v>
+        <v>1729</v>
       </c>
       <c r="L309" t="s">
         <v>1945</v>
       </c>
       <c r="M309" t="s">
-        <v>2098</v>
+        <v>2139</v>
       </c>
       <c r="N309" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="O309" s="2" t="s">
         <v>2469</v>
@@ -22430,19 +22427,19 @@
         <v>322</v>
       </c>
       <c r="C310" t="s">
-        <v>625</v>
+        <v>719</v>
       </c>
       <c r="D310" t="s">
         <v>1066</v>
       </c>
       <c r="E310" t="s">
-        <v>1333</v>
+        <v>1361</v>
       </c>
       <c r="F310" t="s">
         <v>1502</v>
       </c>
       <c r="G310" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H310" t="s">
         <v>1711</v>
@@ -22453,14 +22450,17 @@
       <c r="J310" t="s">
         <v>1717</v>
       </c>
+      <c r="K310" t="s">
+        <v>1723</v>
+      </c>
       <c r="L310" t="s">
         <v>1946</v>
       </c>
       <c r="M310" t="s">
-        <v>2138</v>
+        <v>2098</v>
       </c>
       <c r="N310" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
       <c r="O310" s="2" t="s">
         <v>2470</v>
@@ -22474,40 +22474,37 @@
         <v>323</v>
       </c>
       <c r="C311" t="s">
-        <v>719</v>
+        <v>624</v>
       </c>
       <c r="D311" t="s">
         <v>1067</v>
       </c>
       <c r="E311" t="s">
-        <v>1300</v>
+        <v>1333</v>
       </c>
       <c r="F311" t="s">
-        <v>1526</v>
+        <v>1502</v>
       </c>
       <c r="G311" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="H311" t="s">
         <v>1711</v>
       </c>
       <c r="I311" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J311" t="s">
         <v>1717</v>
       </c>
-      <c r="K311" t="s">
-        <v>1728</v>
-      </c>
       <c r="L311" t="s">
-        <v>1880</v>
+        <v>1947</v>
       </c>
       <c r="M311" t="s">
-        <v>2088</v>
+        <v>2138</v>
       </c>
       <c r="N311" t="s">
-        <v>2156</v>
+        <v>2161</v>
       </c>
       <c r="O311" s="2" t="s">
         <v>2471</v>
@@ -22527,13 +22524,13 @@
         <v>1068</v>
       </c>
       <c r="E312" t="s">
-        <v>1362</v>
+        <v>1300</v>
       </c>
       <c r="F312" t="s">
-        <v>1656</v>
+        <v>1526</v>
       </c>
       <c r="G312" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="H312" t="s">
         <v>1711</v>
@@ -22545,16 +22542,16 @@
         <v>1717</v>
       </c>
       <c r="K312" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="L312" t="s">
-        <v>1947</v>
+        <v>1880</v>
       </c>
       <c r="M312" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="N312" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="O312" s="2" t="s">
         <v>2472</v>
@@ -22574,10 +22571,10 @@
         <v>1069</v>
       </c>
       <c r="E313" t="s">
-        <v>1245</v>
+        <v>1362</v>
       </c>
       <c r="F313" t="s">
-        <v>1502</v>
+        <v>1656</v>
       </c>
       <c r="G313" t="s">
         <v>1697</v>
@@ -22586,19 +22583,22 @@
         <v>1711</v>
       </c>
       <c r="I313" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="J313" t="s">
         <v>1717</v>
       </c>
+      <c r="K313" t="s">
+        <v>1726</v>
+      </c>
       <c r="L313" t="s">
         <v>1948</v>
       </c>
       <c r="M313" t="s">
-        <v>2129</v>
+        <v>2091</v>
       </c>
       <c r="N313" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="O313" s="2" t="s">
         <v>2473</v>
@@ -22612,37 +22612,34 @@
         <v>326</v>
       </c>
       <c r="C314" t="s">
-        <v>526</v>
+        <v>722</v>
       </c>
       <c r="D314" t="s">
         <v>1070</v>
       </c>
       <c r="E314" t="s">
-        <v>1360</v>
+        <v>1245</v>
       </c>
       <c r="F314" t="s">
         <v>1502</v>
       </c>
       <c r="G314" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="H314" t="s">
         <v>1711</v>
       </c>
       <c r="I314" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="J314" t="s">
         <v>1717</v>
       </c>
-      <c r="K314" t="s">
-        <v>1730</v>
-      </c>
       <c r="L314" t="s">
-        <v>1912</v>
+        <v>1866</v>
       </c>
       <c r="M314" t="s">
-        <v>2097</v>
+        <v>2124</v>
       </c>
       <c r="N314" t="s">
         <v>2157</v>
@@ -22659,19 +22656,19 @@
         <v>327</v>
       </c>
       <c r="C315" t="s">
-        <v>722</v>
+        <v>526</v>
       </c>
       <c r="D315" t="s">
-        <v>850</v>
+        <v>1071</v>
       </c>
       <c r="E315" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="F315" t="s">
         <v>1502</v>
       </c>
       <c r="G315" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="H315" t="s">
         <v>1711</v>
@@ -22683,16 +22680,16 @@
         <v>1717</v>
       </c>
       <c r="K315" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="L315" t="s">
-        <v>1949</v>
+        <v>1913</v>
       </c>
       <c r="M315" t="s">
-        <v>2087</v>
+        <v>2097</v>
       </c>
       <c r="N315" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="O315" s="2" t="s">
         <v>2475</v>
@@ -22709,34 +22706,37 @@
         <v>723</v>
       </c>
       <c r="D316" t="s">
-        <v>1071</v>
+        <v>850</v>
       </c>
       <c r="E316" t="s">
-        <v>1331</v>
+        <v>1363</v>
       </c>
       <c r="F316" t="s">
         <v>1502</v>
       </c>
       <c r="G316" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H316" t="s">
         <v>1711</v>
       </c>
       <c r="I316" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="J316" t="s">
         <v>1717</v>
       </c>
+      <c r="K316" t="s">
+        <v>1723</v>
+      </c>
       <c r="L316" t="s">
-        <v>1889</v>
+        <v>1949</v>
       </c>
       <c r="M316" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="N316" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="O316" s="2" t="s">
         <v>2476</v>
@@ -22750,40 +22750,37 @@
         <v>329</v>
       </c>
       <c r="C317" t="s">
-        <v>527</v>
+        <v>724</v>
       </c>
       <c r="D317" t="s">
         <v>1072</v>
       </c>
       <c r="E317" t="s">
-        <v>1238</v>
+        <v>1331</v>
       </c>
       <c r="F317" t="s">
-        <v>1657</v>
+        <v>1502</v>
       </c>
       <c r="G317" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="H317" t="s">
         <v>1711</v>
       </c>
       <c r="I317" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J317" t="s">
-        <v>1718</v>
-      </c>
-      <c r="K317" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="L317" t="s">
-        <v>1751</v>
+        <v>1889</v>
       </c>
       <c r="M317" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="N317" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="O317" s="2" t="s">
         <v>2477</v>
@@ -22797,34 +22794,37 @@
         <v>330</v>
       </c>
       <c r="C318" t="s">
-        <v>724</v>
+        <v>527</v>
       </c>
       <c r="D318" t="s">
-        <v>850</v>
+        <v>1073</v>
       </c>
       <c r="E318" t="s">
-        <v>1296</v>
+        <v>1238</v>
       </c>
       <c r="F318" t="s">
-        <v>1502</v>
+        <v>1657</v>
       </c>
       <c r="G318" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="H318" t="s">
         <v>1711</v>
       </c>
       <c r="I318" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J318" t="s">
-        <v>1720</v>
+        <v>1718</v>
+      </c>
+      <c r="K318" t="s">
+        <v>1723</v>
       </c>
       <c r="L318" t="s">
-        <v>1950</v>
+        <v>1751</v>
       </c>
       <c r="M318" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="N318" t="s">
         <v>2158</v>
@@ -22847,13 +22847,13 @@
         <v>850</v>
       </c>
       <c r="E319" t="s">
-        <v>1245</v>
+        <v>1296</v>
       </c>
       <c r="F319" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="G319" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H319" t="s">
         <v>1711</v>
@@ -22862,16 +22862,16 @@
         <v>1713</v>
       </c>
       <c r="J319" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="L319" t="s">
-        <v>1941</v>
+        <v>1950</v>
       </c>
       <c r="M319" t="s">
-        <v>2138</v>
+        <v>2087</v>
       </c>
       <c r="N319" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="O319" s="2" t="s">
         <v>2479</v>
@@ -22888,16 +22888,16 @@
         <v>726</v>
       </c>
       <c r="D320" t="s">
-        <v>1073</v>
+        <v>850</v>
       </c>
       <c r="E320" t="s">
-        <v>1347</v>
+        <v>1245</v>
       </c>
       <c r="F320" t="s">
-        <v>1543</v>
+        <v>1500</v>
       </c>
       <c r="G320" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="H320" t="s">
         <v>1711</v>
@@ -22906,19 +22906,16 @@
         <v>1713</v>
       </c>
       <c r="J320" t="s">
-        <v>1717</v>
-      </c>
-      <c r="K320" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="L320" t="s">
-        <v>1899</v>
+        <v>1942</v>
       </c>
       <c r="M320" t="s">
-        <v>2087</v>
+        <v>2138</v>
       </c>
       <c r="N320" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="O320" s="2" t="s">
         <v>2480</v>
@@ -22938,34 +22935,34 @@
         <v>1074</v>
       </c>
       <c r="E321" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="F321" t="s">
-        <v>1658</v>
+        <v>1543</v>
       </c>
       <c r="G321" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="H321" t="s">
         <v>1711</v>
       </c>
       <c r="I321" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J321" t="s">
         <v>1717</v>
       </c>
       <c r="K321" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="L321" t="s">
-        <v>1951</v>
+        <v>1899</v>
       </c>
       <c r="M321" t="s">
-        <v>2098</v>
+        <v>2087</v>
       </c>
       <c r="N321" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="O321" s="2" t="s">
         <v>2481</v>
@@ -22985,13 +22982,13 @@
         <v>1075</v>
       </c>
       <c r="E322" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="F322" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G322" t="s">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="H322" t="s">
         <v>1711</v>
@@ -23000,16 +22997,19 @@
         <v>1714</v>
       </c>
       <c r="J322" t="s">
-        <v>1721</v>
+        <v>1717</v>
+      </c>
+      <c r="K322" t="s">
+        <v>1733</v>
       </c>
       <c r="L322" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="M322" t="s">
-        <v>2140</v>
+        <v>2098</v>
       </c>
       <c r="N322" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="O322" s="2" t="s">
         <v>2482</v>
@@ -23029,13 +23029,13 @@
         <v>1076</v>
       </c>
       <c r="E323" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="F323" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="G323" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="H323" t="s">
         <v>1711</v>
@@ -23044,16 +23044,16 @@
         <v>1714</v>
       </c>
       <c r="J323" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="L323" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="M323" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="N323" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="O323" s="2" t="s">
         <v>2483</v>
@@ -23070,34 +23070,34 @@
         <v>730</v>
       </c>
       <c r="D324" t="s">
-        <v>850</v>
+        <v>1077</v>
       </c>
       <c r="E324" t="s">
-        <v>1239</v>
+        <v>1365</v>
       </c>
       <c r="F324" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G324" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="H324" t="s">
         <v>1711</v>
       </c>
       <c r="I324" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J324" t="s">
         <v>1717</v>
       </c>
       <c r="L324" t="s">
-        <v>1872</v>
+        <v>1953</v>
       </c>
       <c r="M324" t="s">
-        <v>2125</v>
+        <v>2141</v>
       </c>
       <c r="N324" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="O324" s="2" t="s">
         <v>2484</v>
@@ -23117,34 +23117,31 @@
         <v>850</v>
       </c>
       <c r="E325" t="s">
-        <v>1366</v>
+        <v>1239</v>
       </c>
       <c r="F325" t="s">
-        <v>1499</v>
+        <v>1661</v>
       </c>
       <c r="G325" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="H325" t="s">
         <v>1711</v>
       </c>
       <c r="I325" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J325" t="s">
-        <v>1718</v>
-      </c>
-      <c r="K325" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="L325" t="s">
-        <v>1954</v>
+        <v>1872</v>
       </c>
       <c r="M325" t="s">
-        <v>2087</v>
+        <v>2126</v>
       </c>
       <c r="N325" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="O325" s="2" t="s">
         <v>2485</v>
@@ -23158,34 +23155,40 @@
         <v>338</v>
       </c>
       <c r="C326" t="s">
-        <v>577</v>
+        <v>732</v>
       </c>
       <c r="D326" t="s">
-        <v>1077</v>
+        <v>850</v>
       </c>
       <c r="E326" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="F326" t="s">
-        <v>1662</v>
+        <v>1499</v>
       </c>
       <c r="G326" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="H326" t="s">
         <v>1711</v>
       </c>
       <c r="I326" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J326" t="s">
-        <v>1717</v>
+        <v>1718</v>
+      </c>
+      <c r="K326" t="s">
+        <v>1723</v>
       </c>
       <c r="L326" t="s">
-        <v>1883</v>
+        <v>1954</v>
       </c>
       <c r="M326" t="s">
-        <v>2098</v>
+        <v>2087</v>
+      </c>
+      <c r="N326" t="s">
+        <v>2155</v>
       </c>
       <c r="O326" s="2" t="s">
         <v>2486</v>
@@ -23205,13 +23208,13 @@
         <v>1078</v>
       </c>
       <c r="E327" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F327" t="s">
-        <v>1502</v>
+        <v>1662</v>
       </c>
       <c r="G327" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="H327" t="s">
         <v>1711</v>
@@ -23220,19 +23223,13 @@
         <v>1714</v>
       </c>
       <c r="J327" t="s">
-        <v>1718</v>
-      </c>
-      <c r="K327" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="L327" t="s">
-        <v>1955</v>
+        <v>1885</v>
       </c>
       <c r="M327" t="s">
-        <v>2115</v>
-      </c>
-      <c r="N327" t="s">
-        <v>2158</v>
+        <v>2098</v>
       </c>
       <c r="O327" s="2" t="s">
         <v>2487</v>
@@ -23246,34 +23243,37 @@
         <v>340</v>
       </c>
       <c r="C328" t="s">
-        <v>732</v>
+        <v>577</v>
       </c>
       <c r="D328" t="s">
         <v>1079</v>
       </c>
       <c r="E328" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="F328" t="s">
-        <v>1587</v>
+        <v>1502</v>
       </c>
       <c r="G328" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="H328" t="s">
         <v>1711</v>
       </c>
       <c r="I328" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J328" t="s">
         <v>1718</v>
       </c>
+      <c r="K328" t="s">
+        <v>1723</v>
+      </c>
       <c r="L328" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="M328" t="s">
-        <v>2087</v>
+        <v>2115</v>
       </c>
       <c r="N328" t="s">
         <v>2158</v>
@@ -23293,34 +23293,34 @@
         <v>733</v>
       </c>
       <c r="D329" t="s">
-        <v>850</v>
+        <v>1080</v>
       </c>
       <c r="E329" t="s">
-        <v>1245</v>
+        <v>1364</v>
       </c>
       <c r="F329" t="s">
-        <v>1488</v>
+        <v>1587</v>
       </c>
       <c r="G329" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="H329" t="s">
         <v>1711</v>
       </c>
       <c r="I329" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J329" t="s">
         <v>1718</v>
       </c>
       <c r="L329" t="s">
-        <v>1941</v>
+        <v>1956</v>
       </c>
       <c r="M329" t="s">
-        <v>2138</v>
+        <v>2087</v>
       </c>
       <c r="N329" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="O329" s="2" t="s">
         <v>2489</v>
@@ -23337,34 +23337,34 @@
         <v>734</v>
       </c>
       <c r="D330" t="s">
-        <v>1080</v>
+        <v>850</v>
       </c>
       <c r="E330" t="s">
         <v>1245</v>
       </c>
       <c r="F330" t="s">
-        <v>1511</v>
+        <v>1488</v>
       </c>
       <c r="G330" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="H330" t="s">
         <v>1711</v>
       </c>
       <c r="I330" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="J330" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="L330" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="M330" t="s">
-        <v>2129</v>
+        <v>2138</v>
       </c>
       <c r="N330" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="O330" s="2" t="s">
         <v>2490</v>
@@ -23625,7 +23625,7 @@
         <v>1717</v>
       </c>
       <c r="L336" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="M336" t="s">
         <v>2138</v>
@@ -23763,7 +23763,7 @@
         <v>1963</v>
       </c>
       <c r="M339" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="N339" t="s">
         <v>2158</v>
@@ -23804,7 +23804,7 @@
         <v>1718</v>
       </c>
       <c r="L340" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="M340" t="s">
         <v>2138</v>
@@ -24153,7 +24153,7 @@
         <v>1096</v>
       </c>
       <c r="E348" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="F348" t="s">
         <v>1542</v>
@@ -24485,7 +24485,7 @@
         <v>1977</v>
       </c>
       <c r="M355" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="N355" t="s">
         <v>2159</v>
@@ -24887,7 +24887,7 @@
         <v>1718</v>
       </c>
       <c r="L364" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="M364" t="s">
         <v>2138</v>
@@ -24931,7 +24931,7 @@
         <v>1718</v>
       </c>
       <c r="L365" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="M365" t="s">
         <v>2138</v>
@@ -24975,7 +24975,7 @@
         <v>1718</v>
       </c>
       <c r="L366" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="M366" t="s">
         <v>2138</v>
@@ -25204,7 +25204,7 @@
         <v>1985</v>
       </c>
       <c r="M371" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="N371" t="s">
         <v>2154</v>
@@ -25292,7 +25292,7 @@
         <v>1718</v>
       </c>
       <c r="L373" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="M373" t="s">
         <v>2138</v>
@@ -25412,7 +25412,7 @@
         <v>1121</v>
       </c>
       <c r="E376" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F376" t="s">
         <v>1503</v>
@@ -25852,7 +25852,7 @@
         <v>398</v>
       </c>
       <c r="C386" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D386" t="s">
         <v>1130</v>
@@ -26031,7 +26031,7 @@
         <v>402</v>
       </c>
       <c r="C390" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D390" t="s">
         <v>850</v>
@@ -26196,7 +26196,7 @@
         <v>1730</v>
       </c>
       <c r="L393" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="M393" t="s">
         <v>2097</v>
@@ -26431,7 +26431,7 @@
         <v>1963</v>
       </c>
       <c r="M398" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="N398" t="s">
         <v>2158</v>
@@ -26742,7 +26742,7 @@
         <v>1985</v>
       </c>
       <c r="M405" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="N405" t="s">
         <v>2154</v>
@@ -26897,7 +26897,7 @@
         <v>421</v>
       </c>
       <c r="C409" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D409" t="s">
         <v>1150</v>
@@ -26965,7 +26965,7 @@
         <v>1718</v>
       </c>
       <c r="L410" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="M410" t="s">
         <v>2120</v>
@@ -27015,7 +27015,7 @@
         <v>2014</v>
       </c>
       <c r="M411" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="N411" t="s">
         <v>2155</v>
@@ -27760,7 +27760,7 @@
         <v>810</v>
       </c>
       <c r="D428" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E428" t="s">
         <v>1428</v>
@@ -27828,7 +27828,7 @@
         <v>1730</v>
       </c>
       <c r="L429" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="M429" t="s">
         <v>2097</v>
@@ -28130,7 +28130,7 @@
         <v>1359</v>
       </c>
       <c r="F436" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="G436" t="s">
         <v>1697</v>
@@ -28145,7 +28145,7 @@
         <v>1717</v>
       </c>
       <c r="L436" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="M436" t="s">
         <v>2123</v>
@@ -28174,7 +28174,7 @@
         <v>1434</v>
       </c>
       <c r="F437" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="G437" t="s">
         <v>1697</v>
@@ -28526,7 +28526,7 @@
         <v>820</v>
       </c>
       <c r="D445" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E445" t="s">
         <v>1440</v>
@@ -28570,7 +28570,7 @@
         <v>458</v>
       </c>
       <c r="C446" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="D446" t="s">
         <v>1177</v>
@@ -28614,7 +28614,7 @@
         <v>459</v>
       </c>
       <c r="C447" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="D447" t="s">
         <v>1178</v>
@@ -29140,7 +29140,7 @@
         <v>2052</v>
       </c>
       <c r="M458" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="N458" t="s">
         <v>2155</v>
@@ -30102,7 +30102,7 @@
         <v>492</v>
       </c>
       <c r="C480" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="D480" t="s">
         <v>1207</v>
